--- a/time_trackerConverter_Tomas.xlsx
+++ b/time_trackerConverter_Tomas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rytis\Documents\MyDocuments\MyApps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rytis\Documents\MyDocuments\MyApps\trackerConverter_Tomas_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5765259-54F0-4746-96B3-E2D3F824E274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580AB849-0645-4815-88B3-838CBD3361D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>2020 09 01</t>
+  </si>
+  <si>
+    <t>Brainstorming</t>
+  </si>
+  <si>
+    <t>input()</t>
   </si>
 </sst>
 </file>
@@ -481,7 +490,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -519,57 +528,69 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D2" s="10"/>
       <c r="E2" s="13">
-        <f t="shared" ref="E1:E44" si="0">C2-B2-D2</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="1"/>
+        <f t="shared" ref="E2:E44" si="0">C2-B2-D2</f>
+        <v>3.4722222222220989E-3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <f t="shared" ref="A2:A45" si="1">A2</f>
-        <v>0</v>
+      <c r="A3" s="7" t="str">
+        <f t="shared" ref="A3:A45" si="1">A2</f>
+        <v>2020 09 01</v>
       </c>
       <c r="B3" s="10">
-        <f t="shared" ref="B2:B53" si="2">C2</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="10"/>
+        <f t="shared" ref="B3:B53" si="2">C2</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.92361111111111116</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B4" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.92361111111111116</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.92361111111111116</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B5" s="10">
         <f t="shared" si="2"/>
@@ -585,9 +606,9 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B6" s="10">
         <f t="shared" si="2"/>
@@ -603,9 +624,9 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B7" s="10">
         <f t="shared" si="2"/>
@@ -621,9 +642,9 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B8" s="10">
         <f t="shared" si="2"/>
@@ -639,9 +660,9 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B9" s="10">
         <f t="shared" si="2"/>
@@ -657,9 +678,9 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B10" s="10">
         <f t="shared" si="2"/>
@@ -675,9 +696,9 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B11" s="10">
         <f t="shared" si="2"/>
@@ -693,9 +714,9 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B12" s="10">
         <f t="shared" si="2"/>
@@ -711,9 +732,9 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B13" s="10">
         <f t="shared" si="2"/>
@@ -729,9 +750,9 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="8" t="str">
         <f>A13</f>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B14" s="11">
         <f t="shared" si="2"/>
@@ -747,9 +768,9 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B15" s="10">
         <f t="shared" si="2"/>
@@ -765,9 +786,9 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B16" s="10">
         <f t="shared" si="2"/>
@@ -783,9 +804,9 @@
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B17" s="10">
         <f t="shared" si="2"/>
@@ -801,9 +822,9 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B18" s="10">
         <f t="shared" si="2"/>
@@ -819,9 +840,9 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B19" s="10">
         <f t="shared" si="2"/>
@@ -837,9 +858,9 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B20" s="10">
         <f t="shared" si="2"/>
@@ -855,9 +876,9 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B21" s="10">
         <f t="shared" si="2"/>
@@ -873,9 +894,9 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B22" s="10">
         <f t="shared" si="2"/>
@@ -891,9 +912,9 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B23" s="10">
         <f t="shared" si="2"/>
@@ -909,9 +930,9 @@
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B24" s="10">
         <f t="shared" si="2"/>
@@ -927,9 +948,9 @@
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B25" s="10">
         <f t="shared" si="2"/>
@@ -945,9 +966,9 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+      <c r="A26" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="2"/>
@@ -963,9 +984,9 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" si="2"/>
@@ -981,9 +1002,9 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+      <c r="A28" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B28" s="10">
         <f t="shared" si="2"/>
@@ -999,9 +1020,9 @@
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B29" s="10">
         <f t="shared" si="2"/>
@@ -1017,9 +1038,9 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="A30" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B30" s="11">
         <f t="shared" si="2"/>
@@ -1035,9 +1056,9 @@
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B31" s="10">
         <f t="shared" si="2"/>
@@ -1053,9 +1074,9 @@
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="A32" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B32" s="10">
         <f t="shared" si="2"/>
@@ -1071,9 +1092,9 @@
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B33" s="10">
         <f t="shared" si="2"/>
@@ -1089,9 +1110,9 @@
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+      <c r="A34" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B34" s="10">
         <f t="shared" si="2"/>
@@ -1107,9 +1128,9 @@
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B35" s="10">
         <f t="shared" si="2"/>
@@ -1125,9 +1146,9 @@
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
+      <c r="A36" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B36" s="10">
         <f t="shared" si="2"/>
@@ -1143,9 +1164,9 @@
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B37" s="10">
         <f t="shared" si="2"/>
@@ -1161,9 +1182,9 @@
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
+      <c r="A38" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B38" s="10">
         <f t="shared" si="2"/>
@@ -1179,9 +1200,9 @@
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B39" s="10">
         <f t="shared" si="2"/>
@@ -1197,9 +1218,9 @@
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
+      <c r="A40" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B40" s="10">
         <f t="shared" si="2"/>
@@ -1215,9 +1236,9 @@
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B41" s="10">
         <f t="shared" si="2"/>
@@ -1233,9 +1254,9 @@
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
+      <c r="A42" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B42" s="10">
         <f t="shared" si="2"/>
@@ -1251,9 +1272,9 @@
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="A43" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B43" s="10">
         <f t="shared" si="2"/>
@@ -1269,9 +1290,9 @@
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
+      <c r="A44" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B44" s="10">
         <f t="shared" si="2"/>
@@ -1287,9 +1308,9 @@
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B45" s="10">
         <f t="shared" si="2"/>
@@ -1305,9 +1326,9 @@
       <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
+      <c r="A46" s="8" t="str">
         <f t="shared" ref="A46:A109" si="4">A45</f>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B46" s="11">
         <f t="shared" si="2"/>
@@ -1323,9 +1344,9 @@
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B47" s="10">
         <f t="shared" si="2"/>
@@ -1341,9 +1362,9 @@
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
+      <c r="A48" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B48" s="10">
         <f t="shared" si="2"/>
@@ -1359,9 +1380,9 @@
       <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="A49" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B49" s="10">
         <f t="shared" si="2"/>
@@ -1377,9 +1398,9 @@
       <c r="G49" s="15"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
+      <c r="A50" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B50" s="10">
         <f t="shared" si="2"/>
@@ -1395,9 +1416,9 @@
       <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B51" s="10">
         <f t="shared" si="2"/>
@@ -1413,9 +1434,9 @@
       <c r="G51" s="15"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
+      <c r="A52" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B52" s="10">
         <f t="shared" si="2"/>
@@ -1431,9 +1452,9 @@
       <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B53" s="10">
         <f t="shared" si="2"/>
@@ -1449,9 +1470,9 @@
       <c r="G53" s="15"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
+      <c r="A54" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B54" s="10">
         <f t="shared" ref="B54:B117" si="5">C53</f>
@@ -1467,9 +1488,9 @@
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B55" s="10">
         <f t="shared" si="5"/>
@@ -1485,9 +1506,9 @@
       <c r="G55" s="15"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
+      <c r="A56" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B56" s="10">
         <f t="shared" si="5"/>
@@ -1503,9 +1524,9 @@
       <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B57" s="10">
         <f t="shared" si="5"/>
@@ -1521,9 +1542,9 @@
       <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
+      <c r="A58" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B58" s="10">
         <f t="shared" si="5"/>
@@ -1539,9 +1560,9 @@
       <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="A59" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B59" s="10">
         <f t="shared" si="5"/>
@@ -1557,9 +1578,9 @@
       <c r="G59" s="15"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
+      <c r="A60" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B60" s="10">
         <f t="shared" si="5"/>
@@ -1575,9 +1596,9 @@
       <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B61" s="10">
         <f t="shared" si="5"/>
@@ -1593,9 +1614,9 @@
       <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
+      <c r="A62" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B62" s="11">
         <f t="shared" si="5"/>
@@ -1611,9 +1632,9 @@
       <c r="G62" s="15"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="A63" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B63" s="10">
         <f t="shared" si="5"/>
@@ -1629,9 +1650,9 @@
       <c r="G63" s="15"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
+      <c r="A64" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B64" s="10">
         <f t="shared" si="5"/>
@@ -1647,9 +1668,9 @@
       <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+      <c r="A65" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B65" s="10">
         <f t="shared" si="5"/>
@@ -1665,9 +1686,9 @@
       <c r="G65" s="15"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
+      <c r="A66" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B66" s="10">
         <f t="shared" si="5"/>
@@ -1683,9 +1704,9 @@
       <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+      <c r="A67" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B67" s="10">
         <f t="shared" si="5"/>
@@ -1701,9 +1722,9 @@
       <c r="G67" s="15"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
+      <c r="A68" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B68" s="10">
         <f t="shared" si="5"/>
@@ -1719,9 +1740,9 @@
       <c r="G68" s="15"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+      <c r="A69" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B69" s="10">
         <f t="shared" si="5"/>
@@ -1737,9 +1758,9 @@
       <c r="G69" s="15"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
+      <c r="A70" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B70" s="10">
         <f t="shared" si="5"/>
@@ -1755,9 +1776,9 @@
       <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
+      <c r="A71" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B71" s="10">
         <f t="shared" si="5"/>
@@ -1773,9 +1794,9 @@
       <c r="G71" s="15"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
+      <c r="A72" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B72" s="10">
         <f t="shared" si="5"/>
@@ -1791,9 +1812,9 @@
       <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
+      <c r="A73" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B73" s="10">
         <f t="shared" si="5"/>
@@ -1809,9 +1830,9 @@
       <c r="G73" s="15"/>
     </row>
     <row r="74" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
+      <c r="A74" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B74" s="10">
         <f t="shared" si="5"/>
@@ -1827,9 +1848,9 @@
       <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
+      <c r="A75" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B75" s="10">
         <f t="shared" si="5"/>
@@ -1845,9 +1866,9 @@
       <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
+      <c r="A76" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B76" s="10">
         <f t="shared" si="5"/>
@@ -1863,9 +1884,9 @@
       <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
+      <c r="A77" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B77" s="10">
         <f t="shared" si="5"/>
@@ -1881,9 +1902,9 @@
       <c r="G77" s="15"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
+      <c r="A78" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B78" s="11">
         <f t="shared" si="5"/>
@@ -1899,9 +1920,9 @@
       <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
+      <c r="A79" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B79" s="10">
         <f t="shared" si="5"/>
@@ -1917,9 +1938,9 @@
       <c r="G79" s="15"/>
     </row>
     <row r="80" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
+      <c r="A80" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B80" s="10">
         <f t="shared" si="5"/>
@@ -1935,9 +1956,9 @@
       <c r="G80" s="15"/>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
+      <c r="A81" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B81" s="10">
         <f t="shared" si="5"/>
@@ -1953,9 +1974,9 @@
       <c r="G81" s="15"/>
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
+      <c r="A82" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B82" s="10">
         <f t="shared" si="5"/>
@@ -1971,9 +1992,9 @@
       <c r="G82" s="15"/>
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
+      <c r="A83" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B83" s="10">
         <f t="shared" si="5"/>
@@ -1989,9 +2010,9 @@
       <c r="G83" s="15"/>
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
+      <c r="A84" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B84" s="10">
         <f t="shared" si="5"/>
@@ -2007,9 +2028,9 @@
       <c r="G84" s="15"/>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="7">
+      <c r="A85" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B85" s="10">
         <f t="shared" si="5"/>
@@ -2025,9 +2046,9 @@
       <c r="G85" s="15"/>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
+      <c r="A86" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B86" s="10">
         <f t="shared" si="5"/>
@@ -2043,9 +2064,9 @@
       <c r="G86" s="15"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="7">
+      <c r="A87" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B87" s="10">
         <f t="shared" si="5"/>
@@ -2061,9 +2082,9 @@
       <c r="G87" s="15"/>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
+      <c r="A88" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B88" s="10">
         <f t="shared" si="5"/>
@@ -2079,9 +2100,9 @@
       <c r="G88" s="15"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="7">
+      <c r="A89" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B89" s="10">
         <f t="shared" si="5"/>
@@ -2097,9 +2118,9 @@
       <c r="G89" s="15"/>
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
+      <c r="A90" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B90" s="10">
         <f t="shared" si="5"/>
@@ -2115,9 +2136,9 @@
       <c r="G90" s="15"/>
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
+      <c r="A91" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B91" s="10">
         <f t="shared" si="5"/>
@@ -2133,9 +2154,9 @@
       <c r="G91" s="15"/>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
+      <c r="A92" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B92" s="10">
         <f t="shared" si="5"/>
@@ -2151,9 +2172,9 @@
       <c r="G92" s="15"/>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7">
+      <c r="A93" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B93" s="10">
         <f t="shared" si="5"/>
@@ -2169,9 +2190,9 @@
       <c r="G93" s="15"/>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
+      <c r="A94" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B94" s="11">
         <f t="shared" si="5"/>
@@ -2187,9 +2208,9 @@
       <c r="G94" s="15"/>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7">
+      <c r="A95" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B95" s="10">
         <f t="shared" si="5"/>
@@ -2205,9 +2226,9 @@
       <c r="G95" s="15"/>
     </row>
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
+      <c r="A96" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B96" s="10">
         <f t="shared" si="5"/>
@@ -2223,9 +2244,9 @@
       <c r="G96" s="15"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
+      <c r="A97" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B97" s="10">
         <f t="shared" si="5"/>
@@ -2241,9 +2262,9 @@
       <c r="G97" s="15"/>
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
+      <c r="A98" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B98" s="10">
         <f t="shared" si="5"/>
@@ -2259,9 +2280,9 @@
       <c r="G98" s="15"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
+      <c r="A99" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B99" s="10">
         <f t="shared" si="5"/>
@@ -2277,9 +2298,9 @@
       <c r="G99" s="15"/>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
+      <c r="A100" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B100" s="10">
         <f t="shared" si="5"/>
@@ -2295,9 +2316,9 @@
       <c r="G100" s="15"/>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
+      <c r="A101" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B101" s="10">
         <f t="shared" si="5"/>
@@ -2313,9 +2334,9 @@
       <c r="G101" s="15"/>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
+      <c r="A102" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B102" s="10">
         <f t="shared" si="5"/>
@@ -2331,9 +2352,9 @@
       <c r="G102" s="15"/>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7">
+      <c r="A103" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B103" s="10">
         <f t="shared" si="5"/>
@@ -2349,9 +2370,9 @@
       <c r="G103" s="15"/>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
+      <c r="A104" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B104" s="10">
         <f t="shared" si="5"/>
@@ -2367,9 +2388,9 @@
       <c r="G104" s="15"/>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7">
+      <c r="A105" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B105" s="10">
         <f t="shared" si="5"/>
@@ -2385,9 +2406,9 @@
       <c r="G105" s="15"/>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
+      <c r="A106" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B106" s="10">
         <f t="shared" si="5"/>
@@ -2403,9 +2424,9 @@
       <c r="G106" s="15"/>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
+      <c r="A107" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B107" s="10">
         <f t="shared" si="5"/>
@@ -2421,9 +2442,9 @@
       <c r="G107" s="15"/>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
+      <c r="A108" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B108" s="10">
         <f t="shared" si="5"/>
@@ -2439,9 +2460,9 @@
       <c r="G108" s="15"/>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="7">
+      <c r="A109" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B109" s="10">
         <f t="shared" si="5"/>
@@ -2457,9 +2478,9 @@
       <c r="G109" s="15"/>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
+      <c r="A110" s="8" t="str">
         <f t="shared" ref="A110:A173" si="7">A109</f>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B110" s="11">
         <f t="shared" si="5"/>
@@ -2475,9 +2496,9 @@
       <c r="G110" s="15"/>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="7">
+      <c r="A111" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B111" s="10">
         <f t="shared" si="5"/>
@@ -2493,9 +2514,9 @@
       <c r="G111" s="15"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
+      <c r="A112" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B112" s="10">
         <f t="shared" si="5"/>
@@ -2511,9 +2532,9 @@
       <c r="G112" s="15"/>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="7">
+      <c r="A113" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B113" s="10">
         <f t="shared" si="5"/>
@@ -2529,9 +2550,9 @@
       <c r="G113" s="15"/>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
+      <c r="A114" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B114" s="10">
         <f t="shared" si="5"/>
@@ -2547,9 +2568,9 @@
       <c r="G114" s="15"/>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="7">
+      <c r="A115" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B115" s="10">
         <f t="shared" si="5"/>
@@ -2565,9 +2586,9 @@
       <c r="G115" s="15"/>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="8">
+      <c r="A116" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B116" s="10">
         <f t="shared" si="5"/>
@@ -2583,9 +2604,9 @@
       <c r="G116" s="15"/>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="7">
+      <c r="A117" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B117" s="10">
         <f t="shared" si="5"/>
@@ -2601,9 +2622,9 @@
       <c r="G117" s="15"/>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8">
+      <c r="A118" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B118" s="10">
         <f t="shared" ref="B118:B181" si="8">C117</f>
@@ -2619,9 +2640,9 @@
       <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="7">
+      <c r="A119" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B119" s="10">
         <f t="shared" si="8"/>
@@ -2637,9 +2658,9 @@
       <c r="G119" s="15"/>
     </row>
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="8">
+      <c r="A120" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B120" s="10">
         <f t="shared" si="8"/>
@@ -2655,9 +2676,9 @@
       <c r="G120" s="15"/>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="7">
+      <c r="A121" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B121" s="10">
         <f t="shared" si="8"/>
@@ -2673,9 +2694,9 @@
       <c r="G121" s="15"/>
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="8">
+      <c r="A122" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B122" s="10">
         <f t="shared" si="8"/>
@@ -2691,9 +2712,9 @@
       <c r="G122" s="15"/>
     </row>
     <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="7">
+      <c r="A123" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B123" s="10">
         <f t="shared" si="8"/>
@@ -2709,9 +2730,9 @@
       <c r="G123" s="15"/>
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8">
+      <c r="A124" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B124" s="10">
         <f t="shared" si="8"/>
@@ -2727,9 +2748,9 @@
       <c r="G124" s="15"/>
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="7">
+      <c r="A125" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B125" s="10">
         <f t="shared" si="8"/>
@@ -2745,9 +2766,9 @@
       <c r="G125" s="15"/>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="8">
+      <c r="A126" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B126" s="11">
         <f t="shared" si="8"/>
@@ -2763,9 +2784,9 @@
       <c r="G126" s="15"/>
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
+      <c r="A127" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B127" s="10">
         <f t="shared" si="8"/>
@@ -2781,9 +2802,9 @@
       <c r="G127" s="15"/>
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="8">
+      <c r="A128" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B128" s="10">
         <f t="shared" si="8"/>
@@ -2799,9 +2820,9 @@
       <c r="G128" s="15"/>
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="7">
+      <c r="A129" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B129" s="10">
         <f t="shared" si="8"/>
@@ -2817,9 +2838,9 @@
       <c r="G129" s="15"/>
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8">
+      <c r="A130" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B130" s="10">
         <f t="shared" si="8"/>
@@ -2835,9 +2856,9 @@
       <c r="G130" s="15"/>
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="7">
+      <c r="A131" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B131" s="10">
         <f t="shared" si="8"/>
@@ -2853,9 +2874,9 @@
       <c r="G131" s="15"/>
     </row>
     <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="8">
+      <c r="A132" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B132" s="10">
         <f t="shared" si="8"/>
@@ -2871,9 +2892,9 @@
       <c r="G132" s="15"/>
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="7">
+      <c r="A133" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B133" s="10">
         <f t="shared" si="8"/>
@@ -2889,9 +2910,9 @@
       <c r="G133" s="15"/>
     </row>
     <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8">
+      <c r="A134" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B134" s="10">
         <f t="shared" si="8"/>
@@ -2907,9 +2928,9 @@
       <c r="G134" s="15"/>
     </row>
     <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="7">
+      <c r="A135" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B135" s="10">
         <f t="shared" si="8"/>
@@ -2925,9 +2946,9 @@
       <c r="G135" s="15"/>
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8">
+      <c r="A136" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B136" s="10">
         <f t="shared" si="8"/>
@@ -2943,9 +2964,9 @@
       <c r="G136" s="15"/>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="7">
+      <c r="A137" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B137" s="10">
         <f t="shared" si="8"/>
@@ -2961,9 +2982,9 @@
       <c r="G137" s="15"/>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="8">
+      <c r="A138" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B138" s="10">
         <f t="shared" si="8"/>
@@ -2979,9 +3000,9 @@
       <c r="G138" s="15"/>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="7">
+      <c r="A139" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B139" s="10">
         <f t="shared" si="8"/>
@@ -2997,9 +3018,9 @@
       <c r="G139" s="15"/>
     </row>
     <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="8">
+      <c r="A140" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B140" s="10">
         <f t="shared" si="8"/>
@@ -3015,9 +3036,9 @@
       <c r="G140" s="15"/>
     </row>
     <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="7">
+      <c r="A141" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B141" s="10">
         <f t="shared" si="8"/>
@@ -3033,9 +3054,9 @@
       <c r="G141" s="15"/>
     </row>
     <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="8">
+      <c r="A142" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B142" s="11">
         <f t="shared" si="8"/>
@@ -3051,9 +3072,9 @@
       <c r="G142" s="15"/>
     </row>
     <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="7">
+      <c r="A143" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B143" s="10">
         <f t="shared" si="8"/>
@@ -3069,9 +3090,9 @@
       <c r="G143" s="15"/>
     </row>
     <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="8">
+      <c r="A144" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B144" s="10">
         <f t="shared" si="8"/>
@@ -3087,9 +3108,9 @@
       <c r="G144" s="15"/>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="7">
+      <c r="A145" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B145" s="10">
         <f t="shared" si="8"/>
@@ -3105,9 +3126,9 @@
       <c r="G145" s="15"/>
     </row>
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="8">
+      <c r="A146" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B146" s="10">
         <f t="shared" si="8"/>
@@ -3123,9 +3144,9 @@
       <c r="G146" s="15"/>
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="7">
+      <c r="A147" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B147" s="10">
         <f t="shared" si="8"/>
@@ -3141,9 +3162,9 @@
       <c r="G147" s="15"/>
     </row>
     <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="8">
+      <c r="A148" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B148" s="10">
         <f t="shared" si="8"/>
@@ -3159,9 +3180,9 @@
       <c r="G148" s="15"/>
     </row>
     <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="7">
+      <c r="A149" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B149" s="10">
         <f t="shared" si="8"/>
@@ -3177,9 +3198,9 @@
       <c r="G149" s="15"/>
     </row>
     <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="8">
+      <c r="A150" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B150" s="10">
         <f t="shared" si="8"/>
@@ -3195,9 +3216,9 @@
       <c r="G150" s="15"/>
     </row>
     <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="7">
+      <c r="A151" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B151" s="10">
         <f t="shared" si="8"/>
@@ -3213,9 +3234,9 @@
       <c r="G151" s="15"/>
     </row>
     <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="8">
+      <c r="A152" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B152" s="10">
         <f t="shared" si="8"/>
@@ -3231,9 +3252,9 @@
       <c r="G152" s="15"/>
     </row>
     <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="7">
+      <c r="A153" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B153" s="10">
         <f t="shared" si="8"/>
@@ -3249,9 +3270,9 @@
       <c r="G153" s="15"/>
     </row>
     <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="8">
+      <c r="A154" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B154" s="10">
         <f t="shared" si="8"/>
@@ -3267,9 +3288,9 @@
       <c r="G154" s="15"/>
     </row>
     <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="7">
+      <c r="A155" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B155" s="10">
         <f t="shared" si="8"/>
@@ -3285,9 +3306,9 @@
       <c r="G155" s="15"/>
     </row>
     <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="8">
+      <c r="A156" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B156" s="10">
         <f t="shared" si="8"/>
@@ -3303,9 +3324,9 @@
       <c r="G156" s="15"/>
     </row>
     <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="7">
+      <c r="A157" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B157" s="10">
         <f t="shared" si="8"/>
@@ -3321,9 +3342,9 @@
       <c r="G157" s="15"/>
     </row>
     <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="8">
+      <c r="A158" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B158" s="11">
         <f t="shared" si="8"/>
@@ -3339,9 +3360,9 @@
       <c r="G158" s="15"/>
     </row>
     <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="7">
+      <c r="A159" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B159" s="10">
         <f t="shared" si="8"/>
@@ -3357,9 +3378,9 @@
       <c r="G159" s="15"/>
     </row>
     <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="8">
+      <c r="A160" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B160" s="10">
         <f t="shared" si="8"/>
@@ -3375,9 +3396,9 @@
       <c r="G160" s="15"/>
     </row>
     <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="7">
+      <c r="A161" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B161" s="10">
         <f t="shared" si="8"/>
@@ -3393,9 +3414,9 @@
       <c r="G161" s="15"/>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="8">
+      <c r="A162" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B162" s="10">
         <f t="shared" si="8"/>
@@ -3411,9 +3432,9 @@
       <c r="G162" s="15"/>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="7">
+      <c r="A163" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B163" s="10">
         <f t="shared" si="8"/>
@@ -3429,9 +3450,9 @@
       <c r="G163" s="15"/>
     </row>
     <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="8">
+      <c r="A164" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B164" s="10">
         <f t="shared" si="8"/>
@@ -3447,9 +3468,9 @@
       <c r="G164" s="15"/>
     </row>
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="7">
+      <c r="A165" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B165" s="10">
         <f t="shared" si="8"/>
@@ -3465,9 +3486,9 @@
       <c r="G165" s="15"/>
     </row>
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="8">
+      <c r="A166" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B166" s="10">
         <f t="shared" si="8"/>
@@ -3483,9 +3504,9 @@
       <c r="G166" s="15"/>
     </row>
     <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="7">
+      <c r="A167" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B167" s="10">
         <f t="shared" si="8"/>
@@ -3501,9 +3522,9 @@
       <c r="G167" s="15"/>
     </row>
     <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="8">
+      <c r="A168" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B168" s="10">
         <f t="shared" si="8"/>
@@ -3519,9 +3540,9 @@
       <c r="G168" s="15"/>
     </row>
     <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="7">
+      <c r="A169" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B169" s="10">
         <f t="shared" si="8"/>
@@ -3537,9 +3558,9 @@
       <c r="G169" s="15"/>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="8">
+      <c r="A170" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B170" s="10">
         <f t="shared" si="8"/>
@@ -3555,9 +3576,9 @@
       <c r="G170" s="15"/>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="7">
+      <c r="A171" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B171" s="10">
         <f t="shared" si="8"/>
@@ -3573,9 +3594,9 @@
       <c r="G171" s="15"/>
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="8">
+      <c r="A172" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B172" s="10">
         <f t="shared" si="8"/>
@@ -3591,9 +3612,9 @@
       <c r="G172" s="15"/>
     </row>
     <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="7">
+      <c r="A173" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B173" s="10">
         <f t="shared" si="8"/>
@@ -3609,9 +3630,9 @@
       <c r="G173" s="15"/>
     </row>
     <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="8">
+      <c r="A174" s="8" t="str">
         <f t="shared" ref="A174:A237" si="10">A173</f>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B174" s="11">
         <f t="shared" si="8"/>
@@ -3627,9 +3648,9 @@
       <c r="G174" s="15"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="7">
+      <c r="A175" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B175" s="10">
         <f t="shared" si="8"/>
@@ -3645,9 +3666,9 @@
       <c r="G175" s="15"/>
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="8">
+      <c r="A176" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B176" s="10">
         <f t="shared" si="8"/>
@@ -3663,9 +3684,9 @@
       <c r="G176" s="15"/>
     </row>
     <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="7">
+      <c r="A177" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B177" s="10">
         <f t="shared" si="8"/>
@@ -3681,9 +3702,9 @@
       <c r="G177" s="15"/>
     </row>
     <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="8">
+      <c r="A178" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B178" s="10">
         <f t="shared" si="8"/>
@@ -3699,9 +3720,9 @@
       <c r="G178" s="15"/>
     </row>
     <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="7">
+      <c r="A179" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B179" s="10">
         <f t="shared" si="8"/>
@@ -3717,9 +3738,9 @@
       <c r="G179" s="15"/>
     </row>
     <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="8">
+      <c r="A180" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B180" s="10">
         <f t="shared" si="8"/>
@@ -3735,9 +3756,9 @@
       <c r="G180" s="15"/>
     </row>
     <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="7">
+      <c r="A181" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B181" s="10">
         <f t="shared" si="8"/>
@@ -3753,9 +3774,9 @@
       <c r="G181" s="15"/>
     </row>
     <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="8">
+      <c r="A182" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B182" s="10">
         <f t="shared" ref="B182:B245" si="11">C181</f>
@@ -3771,9 +3792,9 @@
       <c r="G182" s="15"/>
     </row>
     <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="7">
+      <c r="A183" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B183" s="10">
         <f t="shared" si="11"/>
@@ -3789,9 +3810,9 @@
       <c r="G183" s="15"/>
     </row>
     <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="8">
+      <c r="A184" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B184" s="10">
         <f t="shared" si="11"/>
@@ -3807,9 +3828,9 @@
       <c r="G184" s="15"/>
     </row>
     <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="7">
+      <c r="A185" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B185" s="10">
         <f t="shared" si="11"/>
@@ -3825,9 +3846,9 @@
       <c r="G185" s="15"/>
     </row>
     <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="8">
+      <c r="A186" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B186" s="10">
         <f t="shared" si="11"/>
@@ -3843,9 +3864,9 @@
       <c r="G186" s="15"/>
     </row>
     <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="7">
+      <c r="A187" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B187" s="10">
         <f t="shared" si="11"/>
@@ -3861,9 +3882,9 @@
       <c r="G187" s="15"/>
     </row>
     <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="8">
+      <c r="A188" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B188" s="10">
         <f t="shared" si="11"/>
@@ -3879,9 +3900,9 @@
       <c r="G188" s="15"/>
     </row>
     <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="7">
+      <c r="A189" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B189" s="10">
         <f t="shared" si="11"/>
@@ -3897,9 +3918,9 @@
       <c r="G189" s="15"/>
     </row>
     <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="8">
+      <c r="A190" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B190" s="11">
         <f t="shared" si="11"/>
@@ -3915,9 +3936,9 @@
       <c r="G190" s="15"/>
     </row>
     <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="7">
+      <c r="A191" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B191" s="10">
         <f t="shared" si="11"/>
@@ -3933,9 +3954,9 @@
       <c r="G191" s="15"/>
     </row>
     <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="8">
+      <c r="A192" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B192" s="10">
         <f t="shared" si="11"/>
@@ -3951,9 +3972,9 @@
       <c r="G192" s="15"/>
     </row>
     <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="7">
+      <c r="A193" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B193" s="10">
         <f t="shared" si="11"/>
@@ -3969,9 +3990,9 @@
       <c r="G193" s="15"/>
     </row>
     <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="8">
+      <c r="A194" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B194" s="10">
         <f t="shared" si="11"/>
@@ -3987,9 +4008,9 @@
       <c r="G194" s="15"/>
     </row>
     <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="7">
+      <c r="A195" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B195" s="10">
         <f t="shared" si="11"/>
@@ -4005,9 +4026,9 @@
       <c r="G195" s="15"/>
     </row>
     <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="8">
+      <c r="A196" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B196" s="10">
         <f t="shared" si="11"/>
@@ -4023,9 +4044,9 @@
       <c r="G196" s="15"/>
     </row>
     <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="7">
+      <c r="A197" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B197" s="10">
         <f t="shared" si="11"/>
@@ -4041,9 +4062,9 @@
       <c r="G197" s="15"/>
     </row>
     <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="8">
+      <c r="A198" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B198" s="10">
         <f t="shared" si="11"/>
@@ -4059,9 +4080,9 @@
       <c r="G198" s="15"/>
     </row>
     <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="7">
+      <c r="A199" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B199" s="10">
         <f t="shared" si="11"/>
@@ -4077,9 +4098,9 @@
       <c r="G199" s="15"/>
     </row>
     <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="8">
+      <c r="A200" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B200" s="10">
         <f t="shared" si="11"/>
@@ -4095,9 +4116,9 @@
       <c r="G200" s="15"/>
     </row>
     <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="7">
+      <c r="A201" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B201" s="10">
         <f t="shared" si="11"/>
@@ -4113,9 +4134,9 @@
       <c r="G201" s="15"/>
     </row>
     <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="8">
+      <c r="A202" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B202" s="10">
         <f t="shared" si="11"/>
@@ -4131,9 +4152,9 @@
       <c r="G202" s="15"/>
     </row>
     <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="7">
+      <c r="A203" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B203" s="10">
         <f t="shared" si="11"/>
@@ -4149,9 +4170,9 @@
       <c r="G203" s="15"/>
     </row>
     <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="8">
+      <c r="A204" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B204" s="10">
         <f t="shared" si="11"/>
@@ -4167,9 +4188,9 @@
       <c r="G204" s="15"/>
     </row>
     <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="7">
+      <c r="A205" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B205" s="10">
         <f t="shared" si="11"/>
@@ -4185,9 +4206,9 @@
       <c r="G205" s="15"/>
     </row>
     <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="8">
+      <c r="A206" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B206" s="11">
         <f t="shared" si="11"/>
@@ -4203,9 +4224,9 @@
       <c r="G206" s="15"/>
     </row>
     <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="7">
+      <c r="A207" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B207" s="10">
         <f t="shared" si="11"/>
@@ -4221,9 +4242,9 @@
       <c r="G207" s="15"/>
     </row>
     <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="8">
+      <c r="A208" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B208" s="10">
         <f t="shared" si="11"/>
@@ -4239,9 +4260,9 @@
       <c r="G208" s="15"/>
     </row>
     <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="7">
+      <c r="A209" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B209" s="10">
         <f t="shared" si="11"/>
@@ -4257,9 +4278,9 @@
       <c r="G209" s="15"/>
     </row>
     <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="8">
+      <c r="A210" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B210" s="10">
         <f t="shared" si="11"/>
@@ -4275,9 +4296,9 @@
       <c r="G210" s="15"/>
     </row>
     <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="7">
+      <c r="A211" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B211" s="10">
         <f t="shared" si="11"/>
@@ -4293,9 +4314,9 @@
       <c r="G211" s="15"/>
     </row>
     <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="8">
+      <c r="A212" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B212" s="10">
         <f t="shared" si="11"/>
@@ -4311,9 +4332,9 @@
       <c r="G212" s="15"/>
     </row>
     <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="7">
+      <c r="A213" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B213" s="10">
         <f t="shared" si="11"/>
@@ -4329,9 +4350,9 @@
       <c r="G213" s="15"/>
     </row>
     <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="8">
+      <c r="A214" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B214" s="10">
         <f t="shared" si="11"/>
@@ -4347,9 +4368,9 @@
       <c r="G214" s="15"/>
     </row>
     <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="7">
+      <c r="A215" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B215" s="10">
         <f t="shared" si="11"/>
@@ -4365,9 +4386,9 @@
       <c r="G215" s="15"/>
     </row>
     <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="8">
+      <c r="A216" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B216" s="10">
         <f t="shared" si="11"/>
@@ -4383,9 +4404,9 @@
       <c r="G216" s="15"/>
     </row>
     <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="7">
+      <c r="A217" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B217" s="10">
         <f t="shared" si="11"/>
@@ -4401,9 +4422,9 @@
       <c r="G217" s="15"/>
     </row>
     <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="8">
+      <c r="A218" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B218" s="10">
         <f t="shared" si="11"/>
@@ -4419,9 +4440,9 @@
       <c r="G218" s="15"/>
     </row>
     <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="7">
+      <c r="A219" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B219" s="10">
         <f t="shared" si="11"/>
@@ -4437,9 +4458,9 @@
       <c r="G219" s="15"/>
     </row>
     <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="8">
+      <c r="A220" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B220" s="10">
         <f t="shared" si="11"/>
@@ -4455,9 +4476,9 @@
       <c r="G220" s="15"/>
     </row>
     <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="7">
+      <c r="A221" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B221" s="10">
         <f t="shared" si="11"/>
@@ -4473,9 +4494,9 @@
       <c r="G221" s="15"/>
     </row>
     <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="8">
+      <c r="A222" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B222" s="11">
         <f t="shared" si="11"/>
@@ -4491,9 +4512,9 @@
       <c r="G222" s="15"/>
     </row>
     <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="7">
+      <c r="A223" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B223" s="10">
         <f t="shared" si="11"/>
@@ -4509,9 +4530,9 @@
       <c r="G223" s="15"/>
     </row>
     <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="8">
+      <c r="A224" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B224" s="10">
         <f t="shared" si="11"/>
@@ -4527,9 +4548,9 @@
       <c r="G224" s="15"/>
     </row>
     <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="7">
+      <c r="A225" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B225" s="10">
         <f t="shared" si="11"/>
@@ -4545,9 +4566,9 @@
       <c r="G225" s="15"/>
     </row>
     <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="8">
+      <c r="A226" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B226" s="10">
         <f t="shared" si="11"/>
@@ -4563,9 +4584,9 @@
       <c r="G226" s="15"/>
     </row>
     <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="7">
+      <c r="A227" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B227" s="10">
         <f t="shared" si="11"/>
@@ -4581,9 +4602,9 @@
       <c r="G227" s="15"/>
     </row>
     <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="8">
+      <c r="A228" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B228" s="10">
         <f t="shared" si="11"/>
@@ -4599,9 +4620,9 @@
       <c r="G228" s="15"/>
     </row>
     <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="7">
+      <c r="A229" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B229" s="10">
         <f t="shared" si="11"/>
@@ -4617,9 +4638,9 @@
       <c r="G229" s="15"/>
     </row>
     <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="8">
+      <c r="A230" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B230" s="10">
         <f t="shared" si="11"/>
@@ -4635,9 +4656,9 @@
       <c r="G230" s="15"/>
     </row>
     <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="7">
+      <c r="A231" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B231" s="10">
         <f t="shared" si="11"/>
@@ -4653,9 +4674,9 @@
       <c r="G231" s="15"/>
     </row>
     <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="8">
+      <c r="A232" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B232" s="10">
         <f t="shared" si="11"/>
@@ -4671,9 +4692,9 @@
       <c r="G232" s="15"/>
     </row>
     <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="7">
+      <c r="A233" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B233" s="10">
         <f t="shared" si="11"/>
@@ -4689,9 +4710,9 @@
       <c r="G233" s="15"/>
     </row>
     <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="8">
+      <c r="A234" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B234" s="10">
         <f t="shared" si="11"/>
@@ -4707,9 +4728,9 @@
       <c r="G234" s="15"/>
     </row>
     <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="7">
+      <c r="A235" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B235" s="10">
         <f t="shared" si="11"/>
@@ -4725,9 +4746,9 @@
       <c r="G235" s="15"/>
     </row>
     <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="8">
+      <c r="A236" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B236" s="10">
         <f t="shared" si="11"/>
@@ -4743,9 +4764,9 @@
       <c r="G236" s="15"/>
     </row>
     <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="7">
+      <c r="A237" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B237" s="10">
         <f t="shared" si="11"/>
@@ -4761,9 +4782,9 @@
       <c r="G237" s="15"/>
     </row>
     <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="8">
+      <c r="A238" s="8" t="str">
         <f t="shared" ref="A238:A301" si="13">A237</f>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B238" s="11">
         <f t="shared" si="11"/>
@@ -4779,9 +4800,9 @@
       <c r="G238" s="15"/>
     </row>
     <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="7">
+      <c r="A239" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B239" s="10">
         <f t="shared" si="11"/>
@@ -4797,9 +4818,9 @@
       <c r="G239" s="15"/>
     </row>
     <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="8">
+      <c r="A240" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B240" s="10">
         <f t="shared" si="11"/>
@@ -4815,9 +4836,9 @@
       <c r="G240" s="15"/>
     </row>
     <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="7">
+      <c r="A241" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B241" s="10">
         <f t="shared" si="11"/>
@@ -4833,9 +4854,9 @@
       <c r="G241" s="15"/>
     </row>
     <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="8">
+      <c r="A242" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B242" s="10">
         <f t="shared" si="11"/>
@@ -4851,9 +4872,9 @@
       <c r="G242" s="15"/>
     </row>
     <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="7">
+      <c r="A243" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B243" s="10">
         <f t="shared" si="11"/>
@@ -4869,9 +4890,9 @@
       <c r="G243" s="15"/>
     </row>
     <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="8">
+      <c r="A244" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B244" s="10">
         <f t="shared" si="11"/>
@@ -4887,9 +4908,9 @@
       <c r="G244" s="15"/>
     </row>
     <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="7">
+      <c r="A245" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B245" s="10">
         <f t="shared" si="11"/>
@@ -4905,9 +4926,9 @@
       <c r="G245" s="15"/>
     </row>
     <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="8">
+      <c r="A246" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B246" s="10">
         <f t="shared" ref="B246:B309" si="14">C245</f>
@@ -4923,9 +4944,9 @@
       <c r="G246" s="15"/>
     </row>
     <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="7">
+      <c r="A247" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B247" s="10">
         <f t="shared" si="14"/>
@@ -4941,9 +4962,9 @@
       <c r="G247" s="15"/>
     </row>
     <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="8">
+      <c r="A248" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B248" s="10">
         <f t="shared" si="14"/>
@@ -4959,9 +4980,9 @@
       <c r="G248" s="15"/>
     </row>
     <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="7">
+      <c r="A249" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B249" s="10">
         <f t="shared" si="14"/>
@@ -4977,9 +4998,9 @@
       <c r="G249" s="15"/>
     </row>
     <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="8">
+      <c r="A250" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B250" s="10">
         <f t="shared" si="14"/>
@@ -4995,9 +5016,9 @@
       <c r="G250" s="15"/>
     </row>
     <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="7">
+      <c r="A251" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B251" s="10">
         <f t="shared" si="14"/>
@@ -5013,9 +5034,9 @@
       <c r="G251" s="15"/>
     </row>
     <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="8">
+      <c r="A252" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B252" s="10">
         <f t="shared" si="14"/>
@@ -5031,9 +5052,9 @@
       <c r="G252" s="15"/>
     </row>
     <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="7">
+      <c r="A253" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B253" s="10">
         <f t="shared" si="14"/>
@@ -5049,9 +5070,9 @@
       <c r="G253" s="15"/>
     </row>
     <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="8">
+      <c r="A254" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B254" s="11">
         <f t="shared" si="14"/>
@@ -5067,9 +5088,9 @@
       <c r="G254" s="15"/>
     </row>
     <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="7">
+      <c r="A255" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B255" s="10">
         <f t="shared" si="14"/>
@@ -5085,9 +5106,9 @@
       <c r="G255" s="15"/>
     </row>
     <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="8">
+      <c r="A256" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B256" s="10">
         <f t="shared" si="14"/>
@@ -5103,9 +5124,9 @@
       <c r="G256" s="15"/>
     </row>
     <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="7">
+      <c r="A257" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B257" s="10">
         <f t="shared" si="14"/>
@@ -5121,9 +5142,9 @@
       <c r="G257" s="15"/>
     </row>
     <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="8">
+      <c r="A258" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B258" s="10">
         <f t="shared" si="14"/>
@@ -5139,9 +5160,9 @@
       <c r="G258" s="15"/>
     </row>
     <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="7">
+      <c r="A259" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B259" s="10">
         <f t="shared" si="14"/>
@@ -5157,9 +5178,9 @@
       <c r="G259" s="15"/>
     </row>
     <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="8">
+      <c r="A260" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B260" s="10">
         <f t="shared" si="14"/>
@@ -5175,9 +5196,9 @@
       <c r="G260" s="15"/>
     </row>
     <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="7">
+      <c r="A261" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B261" s="10">
         <f t="shared" si="14"/>
@@ -5193,9 +5214,9 @@
       <c r="G261" s="15"/>
     </row>
     <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="8">
+      <c r="A262" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B262" s="10">
         <f t="shared" si="14"/>
@@ -5211,9 +5232,9 @@
       <c r="G262" s="15"/>
     </row>
     <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="7">
+      <c r="A263" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B263" s="10">
         <f t="shared" si="14"/>
@@ -5229,9 +5250,9 @@
       <c r="G263" s="15"/>
     </row>
     <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="8">
+      <c r="A264" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B264" s="10">
         <f t="shared" si="14"/>
@@ -5247,9 +5268,9 @@
       <c r="G264" s="15"/>
     </row>
     <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="7">
+      <c r="A265" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B265" s="10">
         <f t="shared" si="14"/>
@@ -5265,9 +5286,9 @@
       <c r="G265" s="15"/>
     </row>
     <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="8">
+      <c r="A266" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B266" s="10">
         <f t="shared" si="14"/>
@@ -5283,9 +5304,9 @@
       <c r="G266" s="15"/>
     </row>
     <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="7">
+      <c r="A267" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B267" s="10">
         <f t="shared" si="14"/>
@@ -5301,9 +5322,9 @@
       <c r="G267" s="15"/>
     </row>
     <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="8">
+      <c r="A268" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B268" s="10">
         <f t="shared" si="14"/>
@@ -5319,9 +5340,9 @@
       <c r="G268" s="15"/>
     </row>
     <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="7">
+      <c r="A269" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B269" s="10">
         <f t="shared" si="14"/>
@@ -5337,9 +5358,9 @@
       <c r="G269" s="15"/>
     </row>
     <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="8">
+      <c r="A270" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B270" s="11">
         <f t="shared" si="14"/>
@@ -5355,9 +5376,9 @@
       <c r="G270" s="15"/>
     </row>
     <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="7">
+      <c r="A271" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B271" s="10">
         <f t="shared" si="14"/>
@@ -5373,9 +5394,9 @@
       <c r="G271" s="15"/>
     </row>
     <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="8">
+      <c r="A272" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B272" s="10">
         <f t="shared" si="14"/>
@@ -5391,9 +5412,9 @@
       <c r="G272" s="15"/>
     </row>
     <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="7">
+      <c r="A273" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B273" s="10">
         <f t="shared" si="14"/>
@@ -5409,9 +5430,9 @@
       <c r="G273" s="15"/>
     </row>
     <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="8">
+      <c r="A274" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B274" s="10">
         <f t="shared" si="14"/>
@@ -5427,9 +5448,9 @@
       <c r="G274" s="15"/>
     </row>
     <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="7">
+      <c r="A275" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B275" s="10">
         <f t="shared" si="14"/>
@@ -5445,9 +5466,9 @@
       <c r="G275" s="15"/>
     </row>
     <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="8">
+      <c r="A276" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B276" s="10">
         <f t="shared" si="14"/>
@@ -5463,9 +5484,9 @@
       <c r="G276" s="15"/>
     </row>
     <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="7">
+      <c r="A277" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B277" s="10">
         <f t="shared" si="14"/>
@@ -5481,9 +5502,9 @@
       <c r="G277" s="15"/>
     </row>
     <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="8">
+      <c r="A278" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B278" s="10">
         <f t="shared" si="14"/>
@@ -5499,9 +5520,9 @@
       <c r="G278" s="15"/>
     </row>
     <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="7">
+      <c r="A279" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B279" s="10">
         <f t="shared" si="14"/>
@@ -5517,9 +5538,9 @@
       <c r="G279" s="15"/>
     </row>
     <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="8">
+      <c r="A280" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B280" s="10">
         <f t="shared" si="14"/>
@@ -5535,9 +5556,9 @@
       <c r="G280" s="15"/>
     </row>
     <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="7">
+      <c r="A281" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B281" s="10">
         <f t="shared" si="14"/>
@@ -5553,9 +5574,9 @@
       <c r="G281" s="15"/>
     </row>
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="8">
+      <c r="A282" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B282" s="10">
         <f t="shared" si="14"/>
@@ -5571,9 +5592,9 @@
       <c r="G282" s="15"/>
     </row>
     <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="7">
+      <c r="A283" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B283" s="10">
         <f t="shared" si="14"/>
@@ -5589,9 +5610,9 @@
       <c r="G283" s="15"/>
     </row>
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="8">
+      <c r="A284" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B284" s="10">
         <f t="shared" si="14"/>
@@ -5607,9 +5628,9 @@
       <c r="G284" s="15"/>
     </row>
     <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="7">
+      <c r="A285" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B285" s="10">
         <f t="shared" si="14"/>
@@ -5625,9 +5646,9 @@
       <c r="G285" s="15"/>
     </row>
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="8">
+      <c r="A286" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B286" s="11">
         <f t="shared" si="14"/>
@@ -5643,9 +5664,9 @@
       <c r="G286" s="15"/>
     </row>
     <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="7">
+      <c r="A287" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B287" s="10">
         <f t="shared" si="14"/>
@@ -5661,9 +5682,9 @@
       <c r="G287" s="15"/>
     </row>
     <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="8">
+      <c r="A288" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B288" s="10">
         <f t="shared" si="14"/>
@@ -5679,9 +5700,9 @@
       <c r="G288" s="15"/>
     </row>
     <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="7">
+      <c r="A289" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B289" s="10">
         <f t="shared" si="14"/>
@@ -5697,9 +5718,9 @@
       <c r="G289" s="15"/>
     </row>
     <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="8">
+      <c r="A290" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B290" s="10">
         <f t="shared" si="14"/>
@@ -5715,9 +5736,9 @@
       <c r="G290" s="15"/>
     </row>
     <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="7">
+      <c r="A291" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B291" s="10">
         <f t="shared" si="14"/>
@@ -5733,9 +5754,9 @@
       <c r="G291" s="15"/>
     </row>
     <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="8">
+      <c r="A292" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B292" s="10">
         <f t="shared" si="14"/>
@@ -5751,9 +5772,9 @@
       <c r="G292" s="15"/>
     </row>
     <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="7">
+      <c r="A293" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B293" s="10">
         <f t="shared" si="14"/>
@@ -5769,9 +5790,9 @@
       <c r="G293" s="15"/>
     </row>
     <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="8">
+      <c r="A294" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B294" s="10">
         <f t="shared" si="14"/>
@@ -5787,9 +5808,9 @@
       <c r="G294" s="15"/>
     </row>
     <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="7">
+      <c r="A295" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B295" s="10">
         <f t="shared" si="14"/>
@@ -5805,9 +5826,9 @@
       <c r="G295" s="15"/>
     </row>
     <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="8">
+      <c r="A296" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B296" s="10">
         <f t="shared" si="14"/>
@@ -5823,9 +5844,9 @@
       <c r="G296" s="15"/>
     </row>
     <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="7">
+      <c r="A297" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B297" s="10">
         <f t="shared" si="14"/>
@@ -5841,9 +5862,9 @@
       <c r="G297" s="15"/>
     </row>
     <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="8">
+      <c r="A298" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B298" s="10">
         <f t="shared" si="14"/>
@@ -5859,9 +5880,9 @@
       <c r="G298" s="15"/>
     </row>
     <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="7">
+      <c r="A299" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B299" s="10">
         <f t="shared" si="14"/>
@@ -5877,9 +5898,9 @@
       <c r="G299" s="15"/>
     </row>
     <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="8">
+      <c r="A300" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B300" s="10">
         <f t="shared" si="14"/>
@@ -5895,9 +5916,9 @@
       <c r="G300" s="15"/>
     </row>
     <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="7">
+      <c r="A301" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B301" s="10">
         <f t="shared" si="14"/>
@@ -5913,9 +5934,9 @@
       <c r="G301" s="15"/>
     </row>
     <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="8">
+      <c r="A302" s="8" t="str">
         <f t="shared" ref="A302:A365" si="16">A301</f>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B302" s="11">
         <f t="shared" si="14"/>
@@ -5931,9 +5952,9 @@
       <c r="G302" s="15"/>
     </row>
     <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="7">
+      <c r="A303" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B303" s="10">
         <f t="shared" si="14"/>
@@ -5949,9 +5970,9 @@
       <c r="G303" s="15"/>
     </row>
     <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="8">
+      <c r="A304" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B304" s="10">
         <f t="shared" si="14"/>
@@ -5967,9 +5988,9 @@
       <c r="G304" s="15"/>
     </row>
     <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="7">
+      <c r="A305" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B305" s="10">
         <f t="shared" si="14"/>
@@ -5985,9 +6006,9 @@
       <c r="G305" s="15"/>
     </row>
     <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="8">
+      <c r="A306" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B306" s="10">
         <f t="shared" si="14"/>
@@ -6003,9 +6024,9 @@
       <c r="G306" s="15"/>
     </row>
     <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="7">
+      <c r="A307" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B307" s="10">
         <f t="shared" si="14"/>
@@ -6021,9 +6042,9 @@
       <c r="G307" s="15"/>
     </row>
     <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="8">
+      <c r="A308" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B308" s="10">
         <f t="shared" si="14"/>
@@ -6039,9 +6060,9 @@
       <c r="G308" s="15"/>
     </row>
     <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="7">
+      <c r="A309" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B309" s="10">
         <f t="shared" si="14"/>
@@ -6057,9 +6078,9 @@
       <c r="G309" s="15"/>
     </row>
     <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="8">
+      <c r="A310" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B310" s="10">
         <f t="shared" ref="B310:B373" si="17">C309</f>
@@ -6075,9 +6096,9 @@
       <c r="G310" s="15"/>
     </row>
     <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="7">
+      <c r="A311" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B311" s="10">
         <f t="shared" si="17"/>
@@ -6093,9 +6114,9 @@
       <c r="G311" s="15"/>
     </row>
     <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="8">
+      <c r="A312" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B312" s="10">
         <f t="shared" si="17"/>
@@ -6111,9 +6132,9 @@
       <c r="G312" s="15"/>
     </row>
     <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="7">
+      <c r="A313" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B313" s="10">
         <f t="shared" si="17"/>
@@ -6129,9 +6150,9 @@
       <c r="G313" s="15"/>
     </row>
     <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="8">
+      <c r="A314" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B314" s="10">
         <f t="shared" si="17"/>
@@ -6147,9 +6168,9 @@
       <c r="G314" s="15"/>
     </row>
     <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="7">
+      <c r="A315" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B315" s="10">
         <f t="shared" si="17"/>
@@ -6165,9 +6186,9 @@
       <c r="G315" s="15"/>
     </row>
     <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="8">
+      <c r="A316" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B316" s="10">
         <f t="shared" si="17"/>
@@ -6183,9 +6204,9 @@
       <c r="G316" s="15"/>
     </row>
     <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="7">
+      <c r="A317" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B317" s="10">
         <f t="shared" si="17"/>
@@ -6201,9 +6222,9 @@
       <c r="G317" s="15"/>
     </row>
     <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="8">
+      <c r="A318" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B318" s="11">
         <f t="shared" si="17"/>
@@ -6219,9 +6240,9 @@
       <c r="G318" s="15"/>
     </row>
     <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="7">
+      <c r="A319" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B319" s="10">
         <f t="shared" si="17"/>
@@ -6237,9 +6258,9 @@
       <c r="G319" s="15"/>
     </row>
     <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="8">
+      <c r="A320" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B320" s="10">
         <f t="shared" si="17"/>
@@ -6255,9 +6276,9 @@
       <c r="G320" s="15"/>
     </row>
     <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="7">
+      <c r="A321" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B321" s="10">
         <f t="shared" si="17"/>
@@ -6273,9 +6294,9 @@
       <c r="G321" s="15"/>
     </row>
     <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="8">
+      <c r="A322" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B322" s="10">
         <f t="shared" si="17"/>
@@ -6291,9 +6312,9 @@
       <c r="G322" s="15"/>
     </row>
     <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="7">
+      <c r="A323" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B323" s="10">
         <f t="shared" si="17"/>
@@ -6309,9 +6330,9 @@
       <c r="G323" s="15"/>
     </row>
     <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="8">
+      <c r="A324" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B324" s="10">
         <f t="shared" si="17"/>
@@ -6327,9 +6348,9 @@
       <c r="G324" s="15"/>
     </row>
     <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="7">
+      <c r="A325" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B325" s="10">
         <f t="shared" si="17"/>
@@ -6345,9 +6366,9 @@
       <c r="G325" s="15"/>
     </row>
     <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="8">
+      <c r="A326" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B326" s="10">
         <f t="shared" si="17"/>
@@ -6363,9 +6384,9 @@
       <c r="G326" s="15"/>
     </row>
     <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="7">
+      <c r="A327" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B327" s="10">
         <f t="shared" si="17"/>
@@ -6381,9 +6402,9 @@
       <c r="G327" s="15"/>
     </row>
     <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="8">
+      <c r="A328" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B328" s="10">
         <f t="shared" si="17"/>
@@ -6399,9 +6420,9 @@
       <c r="G328" s="15"/>
     </row>
     <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="7">
+      <c r="A329" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B329" s="10">
         <f t="shared" si="17"/>
@@ -6417,9 +6438,9 @@
       <c r="G329" s="15"/>
     </row>
     <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="8">
+      <c r="A330" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B330" s="10">
         <f t="shared" si="17"/>
@@ -6435,9 +6456,9 @@
       <c r="G330" s="15"/>
     </row>
     <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="7">
+      <c r="A331" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B331" s="10">
         <f t="shared" si="17"/>
@@ -6453,9 +6474,9 @@
       <c r="G331" s="15"/>
     </row>
     <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="8">
+      <c r="A332" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B332" s="10">
         <f t="shared" si="17"/>
@@ -6471,9 +6492,9 @@
       <c r="G332" s="15"/>
     </row>
     <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="7">
+      <c r="A333" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B333" s="10">
         <f t="shared" si="17"/>
@@ -6489,9 +6510,9 @@
       <c r="G333" s="15"/>
     </row>
     <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="8">
+      <c r="A334" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B334" s="11">
         <f t="shared" si="17"/>
@@ -6507,9 +6528,9 @@
       <c r="G334" s="15"/>
     </row>
     <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="7">
+      <c r="A335" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B335" s="10">
         <f t="shared" si="17"/>
@@ -6525,9 +6546,9 @@
       <c r="G335" s="15"/>
     </row>
     <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="8">
+      <c r="A336" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B336" s="10">
         <f t="shared" si="17"/>
@@ -6543,9 +6564,9 @@
       <c r="G336" s="15"/>
     </row>
     <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="7">
+      <c r="A337" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B337" s="10">
         <f t="shared" si="17"/>
@@ -6561,9 +6582,9 @@
       <c r="G337" s="15"/>
     </row>
     <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="8">
+      <c r="A338" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B338" s="10">
         <f t="shared" si="17"/>
@@ -6579,9 +6600,9 @@
       <c r="G338" s="15"/>
     </row>
     <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="7">
+      <c r="A339" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B339" s="10">
         <f t="shared" si="17"/>
@@ -6597,9 +6618,9 @@
       <c r="G339" s="15"/>
     </row>
     <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="8">
+      <c r="A340" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B340" s="10">
         <f t="shared" si="17"/>
@@ -6615,9 +6636,9 @@
       <c r="G340" s="15"/>
     </row>
     <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="7">
+      <c r="A341" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B341" s="10">
         <f t="shared" si="17"/>
@@ -6633,9 +6654,9 @@
       <c r="G341" s="15"/>
     </row>
     <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="8">
+      <c r="A342" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B342" s="10">
         <f t="shared" si="17"/>
@@ -6651,9 +6672,9 @@
       <c r="G342" s="15"/>
     </row>
     <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="7">
+      <c r="A343" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B343" s="10">
         <f t="shared" si="17"/>
@@ -6669,9 +6690,9 @@
       <c r="G343" s="15"/>
     </row>
     <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="8">
+      <c r="A344" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B344" s="10">
         <f t="shared" si="17"/>
@@ -6687,9 +6708,9 @@
       <c r="G344" s="15"/>
     </row>
     <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="7">
+      <c r="A345" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B345" s="10">
         <f t="shared" si="17"/>
@@ -6705,9 +6726,9 @@
       <c r="G345" s="15"/>
     </row>
     <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="8">
+      <c r="A346" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B346" s="10">
         <f t="shared" si="17"/>
@@ -6723,9 +6744,9 @@
       <c r="G346" s="15"/>
     </row>
     <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="7">
+      <c r="A347" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B347" s="10">
         <f t="shared" si="17"/>
@@ -6741,9 +6762,9 @@
       <c r="G347" s="15"/>
     </row>
     <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="8">
+      <c r="A348" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B348" s="10">
         <f t="shared" si="17"/>
@@ -6759,9 +6780,9 @@
       <c r="G348" s="15"/>
     </row>
     <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="7">
+      <c r="A349" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B349" s="10">
         <f t="shared" si="17"/>
@@ -6777,9 +6798,9 @@
       <c r="G349" s="15"/>
     </row>
     <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="8">
+      <c r="A350" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B350" s="11">
         <f t="shared" si="17"/>
@@ -6795,9 +6816,9 @@
       <c r="G350" s="15"/>
     </row>
     <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="7">
+      <c r="A351" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B351" s="10">
         <f t="shared" si="17"/>
@@ -6813,9 +6834,9 @@
       <c r="G351" s="15"/>
     </row>
     <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="8">
+      <c r="A352" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B352" s="10">
         <f t="shared" si="17"/>
@@ -6831,9 +6852,9 @@
       <c r="G352" s="15"/>
     </row>
     <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="7">
+      <c r="A353" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B353" s="10">
         <f t="shared" si="17"/>
@@ -6849,9 +6870,9 @@
       <c r="G353" s="15"/>
     </row>
     <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="8">
+      <c r="A354" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B354" s="10">
         <f t="shared" si="17"/>
@@ -6867,9 +6888,9 @@
       <c r="G354" s="15"/>
     </row>
     <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="7">
+      <c r="A355" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B355" s="10">
         <f t="shared" si="17"/>
@@ -6885,9 +6906,9 @@
       <c r="G355" s="15"/>
     </row>
     <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="8">
+      <c r="A356" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B356" s="10">
         <f t="shared" si="17"/>
@@ -6903,9 +6924,9 @@
       <c r="G356" s="15"/>
     </row>
     <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="7">
+      <c r="A357" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B357" s="10">
         <f t="shared" si="17"/>
@@ -6921,9 +6942,9 @@
       <c r="G357" s="15"/>
     </row>
     <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="8">
+      <c r="A358" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B358" s="10">
         <f t="shared" si="17"/>
@@ -6939,9 +6960,9 @@
       <c r="G358" s="15"/>
     </row>
     <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="7">
+      <c r="A359" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B359" s="10">
         <f t="shared" si="17"/>
@@ -6957,9 +6978,9 @@
       <c r="G359" s="15"/>
     </row>
     <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="8">
+      <c r="A360" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B360" s="10">
         <f t="shared" si="17"/>
@@ -6975,9 +6996,9 @@
       <c r="G360" s="15"/>
     </row>
     <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="7">
+      <c r="A361" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B361" s="10">
         <f t="shared" si="17"/>
@@ -6993,9 +7014,9 @@
       <c r="G361" s="15"/>
     </row>
     <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="8">
+      <c r="A362" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B362" s="10">
         <f t="shared" si="17"/>
@@ -7011,9 +7032,9 @@
       <c r="G362" s="15"/>
     </row>
     <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="7">
+      <c r="A363" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B363" s="10">
         <f t="shared" si="17"/>
@@ -7029,9 +7050,9 @@
       <c r="G363" s="15"/>
     </row>
     <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="8">
+      <c r="A364" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B364" s="10">
         <f t="shared" si="17"/>
@@ -7047,9 +7068,9 @@
       <c r="G364" s="15"/>
     </row>
     <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="7">
+      <c r="A365" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B365" s="10">
         <f t="shared" si="17"/>
@@ -7065,9 +7086,9 @@
       <c r="G365" s="15"/>
     </row>
     <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="8">
+      <c r="A366" s="8" t="str">
         <f t="shared" ref="A366:A381" si="19">A365</f>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B366" s="11">
         <f t="shared" si="17"/>
@@ -7083,9 +7104,9 @@
       <c r="G366" s="15"/>
     </row>
     <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="7">
+      <c r="A367" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B367" s="10">
         <f t="shared" si="17"/>
@@ -7101,9 +7122,9 @@
       <c r="G367" s="15"/>
     </row>
     <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="8">
+      <c r="A368" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B368" s="10">
         <f t="shared" si="17"/>
@@ -7119,9 +7140,9 @@
       <c r="G368" s="15"/>
     </row>
     <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="7">
+      <c r="A369" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B369" s="10">
         <f t="shared" si="17"/>
@@ -7137,9 +7158,9 @@
       <c r="G369" s="15"/>
     </row>
     <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="8">
+      <c r="A370" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B370" s="10">
         <f t="shared" si="17"/>
@@ -7155,9 +7176,9 @@
       <c r="G370" s="15"/>
     </row>
     <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="7">
+      <c r="A371" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B371" s="10">
         <f t="shared" si="17"/>
@@ -7173,9 +7194,9 @@
       <c r="G371" s="15"/>
     </row>
     <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="8">
+      <c r="A372" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B372" s="10">
         <f t="shared" si="17"/>
@@ -7191,9 +7212,9 @@
       <c r="G372" s="15"/>
     </row>
     <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="7">
+      <c r="A373" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B373" s="10">
         <f t="shared" si="17"/>
@@ -7209,9 +7230,9 @@
       <c r="G373" s="15"/>
     </row>
     <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="8">
+      <c r="A374" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B374" s="10">
         <f t="shared" ref="B374:B381" si="20">C373</f>
@@ -7227,9 +7248,9 @@
       <c r="G374" s="15"/>
     </row>
     <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="7">
+      <c r="A375" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B375" s="10">
         <f t="shared" si="20"/>
@@ -7245,9 +7266,9 @@
       <c r="G375" s="15"/>
     </row>
     <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="8">
+      <c r="A376" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B376" s="10">
         <f t="shared" si="20"/>
@@ -7263,9 +7284,9 @@
       <c r="G376" s="15"/>
     </row>
     <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="7">
+      <c r="A377" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B377" s="10">
         <f t="shared" si="20"/>
@@ -7281,9 +7302,9 @@
       <c r="G377" s="15"/>
     </row>
     <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="8">
+      <c r="A378" s="8" t="str">
         <f>A377</f>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B378" s="10">
         <f t="shared" si="20"/>
@@ -7299,9 +7320,9 @@
       <c r="G378" s="15"/>
     </row>
     <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="7">
+      <c r="A379" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B379" s="10">
         <f t="shared" si="20"/>
@@ -7317,9 +7338,9 @@
       <c r="G379" s="15"/>
     </row>
     <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="8">
+      <c r="A380" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B380" s="10">
         <f t="shared" si="20"/>
@@ -7335,9 +7356,9 @@
       <c r="G380" s="15"/>
     </row>
     <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="7">
+      <c r="A381" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2020 09 01</v>
       </c>
       <c r="B381" s="10">
         <f t="shared" si="20"/>

--- a/time_trackerConverter_Tomas.xlsx
+++ b/time_trackerConverter_Tomas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rytis\Documents\MyDocuments\MyApps\trackerConverter_Tomas_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580AB849-0645-4815-88B3-838CBD3361D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98536FD6-0EAB-4AF6-BC91-A489D77AA634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>input()</t>
+  </si>
+  <si>
+    <t>splitTextIntoObjects()</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -578,13 +581,19 @@
         <f t="shared" si="2"/>
         <v>0.92361111111111116</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="10">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3.472222222222222E-3</v>
+      </c>
       <c r="E4" s="13">
         <f t="shared" si="0"/>
-        <v>-0.92361111111111116</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>2.4305555555555455E-2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -594,13 +603,13 @@
       </c>
       <c r="B5" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.95138888888888884</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>

--- a/time_trackerConverter_Tomas.xlsx
+++ b/time_trackerConverter_Tomas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rytis\Documents\MyDocuments\MyApps\trackerConverter_Tomas_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98536FD6-0EAB-4AF6-BC91-A489D77AA634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606CA107-466C-4E22-869C-4089ABFDBDF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +71,9 @@
   <si>
     <t>splitTextIntoObjects()</t>
   </si>
+  <si>
+    <t>Everything else. Details in gitHub commits</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +97,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +170,26 @@
         <bgColor rgb="FFC55A11"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFF7CAAC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC55A11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -219,11 +240,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -275,6 +309,22 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -507,7 +557,7 @@
     <col min="8" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -530,7 +580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -550,7 +600,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="str">
         <f t="shared" ref="A3:A45" si="1">A2</f>
         <v>2020 09 01</v>
@@ -572,7 +622,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
@@ -596,43 +646,51 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="str">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="24">
         <f t="shared" si="2"/>
         <v>0.95138888888888884</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="13">
+      <c r="C5" s="24">
+        <v>1.0277777777777779</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25">
         <f t="shared" si="0"/>
-        <v>-0.95138888888888884</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.6388888888889062E-2</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28">
+        <f>SUM(E2:E5)</f>
+        <v>0.11111111111111115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
       </c>
       <c r="B6" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0277777777777779</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.0277777777777779</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
@@ -650,7 +708,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
@@ -668,7 +726,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
@@ -686,7 +744,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
@@ -704,7 +762,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
@@ -722,7 +780,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
@@ -740,7 +798,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
@@ -758,7 +816,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="str">
         <f>A13</f>
         <v>2020 09 01</v>
@@ -776,7 +834,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
@@ -794,7 +852,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
@@ -8012,7 +8070,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8034,12 +8092,18 @@
       </c>
       <c r="E1" s="4">
         <f>SUM(B2:B331)</f>
-        <v>0</v>
+        <v>0.11111111111111115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="16" t="str">
+        <f>Sheet1!A5</f>
+        <v>2020 09 01</v>
+      </c>
+      <c r="B2" s="17">
+        <f>Sheet1!H5</f>
+        <v>0.11111111111111115</v>
+      </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/time_trackerConverter_Tomas.xlsx
+++ b/time_trackerConverter_Tomas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rytis\Documents\MyDocuments\MyApps\trackerConverter_Tomas_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606CA107-466C-4E22-869C-4089ABFDBDF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A30CF16-EFB3-4E75-A461-2A7A165B638F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Everything else. Details in gitHub commits</t>
+  </si>
+  <si>
+    <t>bug fixes, added Error messages</t>
+  </si>
+  <si>
+    <t>jeigu ner 2+ "shows" istrina ***SHOWDOWN***</t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -678,34 +684,39 @@
         <v>2020 09 01</v>
       </c>
       <c r="B6" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0277777777777779</v>
-      </c>
-      <c r="C6" s="10"/>
+        <v>0.96875</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.98611111111111116</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="13">
         <f t="shared" si="0"/>
-        <v>-1.0277777777777779</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>1.736111111111116E-2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
       </c>
       <c r="B7" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>-0.98611111111111116</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">

--- a/time_trackerConverter_Tomas.xlsx
+++ b/time_trackerConverter_Tomas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rytis\Documents\MyDocuments\MyApps\trackerConverter_Tomas_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A30CF16-EFB3-4E75-A461-2A7A165B638F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DF808A-9C58-4C47-83A8-6B6B2BF11A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -708,11 +708,13 @@
         <f t="shared" si="2"/>
         <v>0.98611111111111116</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10">
+        <v>1.0138888888888888</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="13">
         <f t="shared" si="0"/>
-        <v>-0.98611111111111116</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -726,13 +728,13 @@
       </c>
       <c r="B8" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0138888888888888</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.0138888888888888</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>

--- a/time_trackerConverter_Tomas.xlsx
+++ b/time_trackerConverter_Tomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rytis\Documents\MyDocuments\MyApps\trackerConverter_Tomas_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DF808A-9C58-4C47-83A8-6B6B2BF11A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDA5906-E464-411C-B0D2-4B1AB6D89172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>jeigu ner 2+ "shows" istrina ***SHOWDOWN***</t>
+  </si>
+  <si>
+    <t>kad eitu ir su `n`r`n`r`n ir su `n`n`n</t>
   </si>
 </sst>
 </file>
@@ -548,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -722,22 +725,29 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="23" t="str">
         <f t="shared" si="1"/>
         <v>2020 09 01</v>
       </c>
-      <c r="B8" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0138888888888888</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="13">
+      <c r="B8" s="24">
+        <v>1.0277777777777779</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1.0486111111111112</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25">
         <f t="shared" si="0"/>
-        <v>-1.0138888888888888</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28">
+        <f>SUM(E6:E8)</f>
+        <v>6.5972222222222099E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="str">
@@ -746,13 +756,13 @@
       </c>
       <c r="B9" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0486111111111112</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.0486111111111112</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -8082,8 +8092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8105,7 +8115,7 @@
       </c>
       <c r="E1" s="4">
         <f>SUM(B2:B331)</f>
-        <v>0.11111111111111115</v>
+        <v>0.17708333333333326</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -8120,8 +8130,14 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="16" t="str">
+        <f>Sheet1!A8</f>
+        <v>2020 09 01</v>
+      </c>
+      <c r="B3" s="17">
+        <f>Sheet1!H8</f>
+        <v>6.5972222222222099E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>

--- a/time_trackerConverter_Tomas.xlsx
+++ b/time_trackerConverter_Tomas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rytis\Documents\MyDocuments\MyApps\trackerConverter_Tomas_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDA5906-E464-411C-B0D2-4B1AB6D89172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6FD953-D7D7-496A-9400-917D2C3A9104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,9 @@
   <si>
     <t>kad eitu ir su `n`r`n`r`n ir su `n`n`n</t>
   </si>
+  <si>
+    <t>2020 09 02</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +109,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +200,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -266,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -334,6 +343,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -656,9 +675,8 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+      <c r="A5" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="24">
         <f t="shared" si="2"/>
@@ -684,7 +702,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B6" s="10">
         <v>0.96875</v>
@@ -705,7 +723,7 @@
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B7" s="10">
         <f t="shared" si="2"/>
@@ -725,62 +743,65 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="str">
+      <c r="A8" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
-      </c>
-      <c r="B8" s="24">
+        <v>2020 09 02</v>
+      </c>
+      <c r="B8" s="10">
         <v>1.0277777777777779</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="10">
         <v>1.0486111111111112</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25">
+      <c r="D8" s="10"/>
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>2.0833333333333259E-2</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28">
-        <f>SUM(E6:E8)</f>
-        <v>6.5972222222222099E-2</v>
-      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
-      </c>
-      <c r="B9" s="10">
+        <v>2020 09 02</v>
+      </c>
+      <c r="B9" s="24">
         <f t="shared" si="2"/>
         <v>1.0486111111111112</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13">
+      <c r="C9" s="24">
+        <v>1.0729166666666667</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25">
         <f t="shared" si="0"/>
-        <v>-1.0486111111111112</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28">
+        <f>SUM(E6:E9)</f>
+        <v>9.0277777777777679E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B10" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.0729166666666667</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.0729166666666667</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -788,7 +809,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B11" s="10">
         <f t="shared" si="2"/>
@@ -806,7 +827,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B12" s="10">
         <f t="shared" si="2"/>
@@ -824,7 +845,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B13" s="10">
         <f t="shared" si="2"/>
@@ -842,7 +863,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="str">
         <f>A13</f>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B14" s="11">
         <f t="shared" si="2"/>
@@ -860,7 +881,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B15" s="10">
         <f t="shared" si="2"/>
@@ -878,7 +899,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B16" s="10">
         <f t="shared" si="2"/>
@@ -896,7 +917,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B17" s="10">
         <f t="shared" si="2"/>
@@ -914,7 +935,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B18" s="10">
         <f t="shared" si="2"/>
@@ -932,7 +953,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B19" s="10">
         <f t="shared" si="2"/>
@@ -950,7 +971,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B20" s="10">
         <f t="shared" si="2"/>
@@ -968,7 +989,7 @@
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B21" s="10">
         <f t="shared" si="2"/>
@@ -986,7 +1007,7 @@
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B22" s="10">
         <f t="shared" si="2"/>
@@ -1004,7 +1025,7 @@
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B23" s="10">
         <f t="shared" si="2"/>
@@ -1022,7 +1043,7 @@
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B24" s="10">
         <f t="shared" si="2"/>
@@ -1040,7 +1061,7 @@
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B25" s="10">
         <f t="shared" si="2"/>
@@ -1058,7 +1079,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="2"/>
@@ -1076,7 +1097,7 @@
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" si="2"/>
@@ -1094,7 +1115,7 @@
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B28" s="10">
         <f t="shared" si="2"/>
@@ -1112,7 +1133,7 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B29" s="10">
         <f t="shared" si="2"/>
@@ -1130,7 +1151,7 @@
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B30" s="11">
         <f t="shared" si="2"/>
@@ -1148,7 +1169,7 @@
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B31" s="10">
         <f t="shared" si="2"/>
@@ -1166,7 +1187,7 @@
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B32" s="10">
         <f t="shared" si="2"/>
@@ -1184,7 +1205,7 @@
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B33" s="10">
         <f t="shared" si="2"/>
@@ -1202,7 +1223,7 @@
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B34" s="10">
         <f t="shared" si="2"/>
@@ -1220,7 +1241,7 @@
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B35" s="10">
         <f t="shared" si="2"/>
@@ -1238,7 +1259,7 @@
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B36" s="10">
         <f t="shared" si="2"/>
@@ -1256,7 +1277,7 @@
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B37" s="10">
         <f t="shared" si="2"/>
@@ -1274,7 +1295,7 @@
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B38" s="10">
         <f t="shared" si="2"/>
@@ -1292,7 +1313,7 @@
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B39" s="10">
         <f t="shared" si="2"/>
@@ -1310,7 +1331,7 @@
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B40" s="10">
         <f t="shared" si="2"/>
@@ -1328,7 +1349,7 @@
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B41" s="10">
         <f t="shared" si="2"/>
@@ -1346,7 +1367,7 @@
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B42" s="10">
         <f t="shared" si="2"/>
@@ -1364,7 +1385,7 @@
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B43" s="10">
         <f t="shared" si="2"/>
@@ -1382,7 +1403,7 @@
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B44" s="10">
         <f t="shared" si="2"/>
@@ -1400,7 +1421,7 @@
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B45" s="10">
         <f t="shared" si="2"/>
@@ -1418,7 +1439,7 @@
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="str">
         <f t="shared" ref="A46:A109" si="4">A45</f>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B46" s="11">
         <f t="shared" si="2"/>
@@ -1436,7 +1457,7 @@
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B47" s="10">
         <f t="shared" si="2"/>
@@ -1454,7 +1475,7 @@
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B48" s="10">
         <f t="shared" si="2"/>
@@ -1472,7 +1493,7 @@
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B49" s="10">
         <f t="shared" si="2"/>
@@ -1490,7 +1511,7 @@
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B50" s="10">
         <f t="shared" si="2"/>
@@ -1508,7 +1529,7 @@
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B51" s="10">
         <f t="shared" si="2"/>
@@ -1526,7 +1547,7 @@
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B52" s="10">
         <f t="shared" si="2"/>
@@ -1544,7 +1565,7 @@
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B53" s="10">
         <f t="shared" si="2"/>
@@ -1562,7 +1583,7 @@
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B54" s="10">
         <f t="shared" ref="B54:B117" si="5">C53</f>
@@ -1580,7 +1601,7 @@
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B55" s="10">
         <f t="shared" si="5"/>
@@ -1598,7 +1619,7 @@
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B56" s="10">
         <f t="shared" si="5"/>
@@ -1616,7 +1637,7 @@
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B57" s="10">
         <f t="shared" si="5"/>
@@ -1634,7 +1655,7 @@
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B58" s="10">
         <f t="shared" si="5"/>
@@ -1652,7 +1673,7 @@
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B59" s="10">
         <f t="shared" si="5"/>
@@ -1670,7 +1691,7 @@
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B60" s="10">
         <f t="shared" si="5"/>
@@ -1688,7 +1709,7 @@
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B61" s="10">
         <f t="shared" si="5"/>
@@ -1706,7 +1727,7 @@
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B62" s="11">
         <f t="shared" si="5"/>
@@ -1724,7 +1745,7 @@
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B63" s="10">
         <f t="shared" si="5"/>
@@ -1742,7 +1763,7 @@
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B64" s="10">
         <f t="shared" si="5"/>
@@ -1760,7 +1781,7 @@
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B65" s="10">
         <f t="shared" si="5"/>
@@ -1778,7 +1799,7 @@
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B66" s="10">
         <f t="shared" si="5"/>
@@ -1796,7 +1817,7 @@
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B67" s="10">
         <f t="shared" si="5"/>
@@ -1814,7 +1835,7 @@
     <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B68" s="10">
         <f t="shared" si="5"/>
@@ -1832,7 +1853,7 @@
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B69" s="10">
         <f t="shared" si="5"/>
@@ -1850,7 +1871,7 @@
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B70" s="10">
         <f t="shared" si="5"/>
@@ -1868,7 +1889,7 @@
     <row r="71" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B71" s="10">
         <f t="shared" si="5"/>
@@ -1886,7 +1907,7 @@
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B72" s="10">
         <f t="shared" si="5"/>
@@ -1904,7 +1925,7 @@
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B73" s="10">
         <f t="shared" si="5"/>
@@ -1922,7 +1943,7 @@
     <row r="74" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B74" s="10">
         <f t="shared" si="5"/>
@@ -1940,7 +1961,7 @@
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B75" s="10">
         <f t="shared" si="5"/>
@@ -1958,7 +1979,7 @@
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B76" s="10">
         <f t="shared" si="5"/>
@@ -1976,7 +1997,7 @@
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B77" s="10">
         <f t="shared" si="5"/>
@@ -1994,7 +2015,7 @@
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B78" s="11">
         <f t="shared" si="5"/>
@@ -2012,7 +2033,7 @@
     <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B79" s="10">
         <f t="shared" si="5"/>
@@ -2030,7 +2051,7 @@
     <row r="80" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B80" s="10">
         <f t="shared" si="5"/>
@@ -2048,7 +2069,7 @@
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B81" s="10">
         <f t="shared" si="5"/>
@@ -2066,7 +2087,7 @@
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B82" s="10">
         <f t="shared" si="5"/>
@@ -2084,7 +2105,7 @@
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B83" s="10">
         <f t="shared" si="5"/>
@@ -2102,7 +2123,7 @@
     <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B84" s="10">
         <f t="shared" si="5"/>
@@ -2120,7 +2141,7 @@
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B85" s="10">
         <f t="shared" si="5"/>
@@ -2138,7 +2159,7 @@
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B86" s="10">
         <f t="shared" si="5"/>
@@ -2156,7 +2177,7 @@
     <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B87" s="10">
         <f t="shared" si="5"/>
@@ -2174,7 +2195,7 @@
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B88" s="10">
         <f t="shared" si="5"/>
@@ -2192,7 +2213,7 @@
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B89" s="10">
         <f t="shared" si="5"/>
@@ -2210,7 +2231,7 @@
     <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B90" s="10">
         <f t="shared" si="5"/>
@@ -2228,7 +2249,7 @@
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B91" s="10">
         <f t="shared" si="5"/>
@@ -2246,7 +2267,7 @@
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B92" s="10">
         <f t="shared" si="5"/>
@@ -2264,7 +2285,7 @@
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B93" s="10">
         <f t="shared" si="5"/>
@@ -2282,7 +2303,7 @@
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B94" s="11">
         <f t="shared" si="5"/>
@@ -2300,7 +2321,7 @@
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B95" s="10">
         <f t="shared" si="5"/>
@@ -2318,7 +2339,7 @@
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B96" s="10">
         <f t="shared" si="5"/>
@@ -2336,7 +2357,7 @@
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B97" s="10">
         <f t="shared" si="5"/>
@@ -2354,7 +2375,7 @@
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B98" s="10">
         <f t="shared" si="5"/>
@@ -2372,7 +2393,7 @@
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B99" s="10">
         <f t="shared" si="5"/>
@@ -2390,7 +2411,7 @@
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B100" s="10">
         <f t="shared" si="5"/>
@@ -2408,7 +2429,7 @@
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B101" s="10">
         <f t="shared" si="5"/>
@@ -2426,7 +2447,7 @@
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B102" s="10">
         <f t="shared" si="5"/>
@@ -2444,7 +2465,7 @@
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B103" s="10">
         <f t="shared" si="5"/>
@@ -2462,7 +2483,7 @@
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B104" s="10">
         <f t="shared" si="5"/>
@@ -2480,7 +2501,7 @@
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B105" s="10">
         <f t="shared" si="5"/>
@@ -2498,7 +2519,7 @@
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B106" s="10">
         <f t="shared" si="5"/>
@@ -2516,7 +2537,7 @@
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B107" s="10">
         <f t="shared" si="5"/>
@@ -2534,7 +2555,7 @@
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B108" s="10">
         <f t="shared" si="5"/>
@@ -2552,7 +2573,7 @@
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B109" s="10">
         <f t="shared" si="5"/>
@@ -2570,7 +2591,7 @@
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="str">
         <f t="shared" ref="A110:A173" si="7">A109</f>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B110" s="11">
         <f t="shared" si="5"/>
@@ -2588,7 +2609,7 @@
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B111" s="10">
         <f t="shared" si="5"/>
@@ -2606,7 +2627,7 @@
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B112" s="10">
         <f t="shared" si="5"/>
@@ -2624,7 +2645,7 @@
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B113" s="10">
         <f t="shared" si="5"/>
@@ -2642,7 +2663,7 @@
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B114" s="10">
         <f t="shared" si="5"/>
@@ -2660,7 +2681,7 @@
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B115" s="10">
         <f t="shared" si="5"/>
@@ -2678,7 +2699,7 @@
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B116" s="10">
         <f t="shared" si="5"/>
@@ -2696,7 +2717,7 @@
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B117" s="10">
         <f t="shared" si="5"/>
@@ -2714,7 +2735,7 @@
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B118" s="10">
         <f t="shared" ref="B118:B181" si="8">C117</f>
@@ -2732,7 +2753,7 @@
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B119" s="10">
         <f t="shared" si="8"/>
@@ -2750,7 +2771,7 @@
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B120" s="10">
         <f t="shared" si="8"/>
@@ -2768,7 +2789,7 @@
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B121" s="10">
         <f t="shared" si="8"/>
@@ -2786,7 +2807,7 @@
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B122" s="10">
         <f t="shared" si="8"/>
@@ -2804,7 +2825,7 @@
     <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B123" s="10">
         <f t="shared" si="8"/>
@@ -2822,7 +2843,7 @@
     <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B124" s="10">
         <f t="shared" si="8"/>
@@ -2840,7 +2861,7 @@
     <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B125" s="10">
         <f t="shared" si="8"/>
@@ -2858,7 +2879,7 @@
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B126" s="11">
         <f t="shared" si="8"/>
@@ -2876,7 +2897,7 @@
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B127" s="10">
         <f t="shared" si="8"/>
@@ -2894,7 +2915,7 @@
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B128" s="10">
         <f t="shared" si="8"/>
@@ -2912,7 +2933,7 @@
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B129" s="10">
         <f t="shared" si="8"/>
@@ -2930,7 +2951,7 @@
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B130" s="10">
         <f t="shared" si="8"/>
@@ -2948,7 +2969,7 @@
     <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B131" s="10">
         <f t="shared" si="8"/>
@@ -2966,7 +2987,7 @@
     <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B132" s="10">
         <f t="shared" si="8"/>
@@ -2984,7 +3005,7 @@
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B133" s="10">
         <f t="shared" si="8"/>
@@ -3002,7 +3023,7 @@
     <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B134" s="10">
         <f t="shared" si="8"/>
@@ -3020,7 +3041,7 @@
     <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B135" s="10">
         <f t="shared" si="8"/>
@@ -3038,7 +3059,7 @@
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B136" s="10">
         <f t="shared" si="8"/>
@@ -3056,7 +3077,7 @@
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B137" s="10">
         <f t="shared" si="8"/>
@@ -3074,7 +3095,7 @@
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B138" s="10">
         <f t="shared" si="8"/>
@@ -3092,7 +3113,7 @@
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B139" s="10">
         <f t="shared" si="8"/>
@@ -3110,7 +3131,7 @@
     <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B140" s="10">
         <f t="shared" si="8"/>
@@ -3128,7 +3149,7 @@
     <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B141" s="10">
         <f t="shared" si="8"/>
@@ -3146,7 +3167,7 @@
     <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B142" s="11">
         <f t="shared" si="8"/>
@@ -3164,7 +3185,7 @@
     <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B143" s="10">
         <f t="shared" si="8"/>
@@ -3182,7 +3203,7 @@
     <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B144" s="10">
         <f t="shared" si="8"/>
@@ -3200,7 +3221,7 @@
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B145" s="10">
         <f t="shared" si="8"/>
@@ -3218,7 +3239,7 @@
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B146" s="10">
         <f t="shared" si="8"/>
@@ -3236,7 +3257,7 @@
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B147" s="10">
         <f t="shared" si="8"/>
@@ -3254,7 +3275,7 @@
     <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B148" s="10">
         <f t="shared" si="8"/>
@@ -3272,7 +3293,7 @@
     <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B149" s="10">
         <f t="shared" si="8"/>
@@ -3290,7 +3311,7 @@
     <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B150" s="10">
         <f t="shared" si="8"/>
@@ -3308,7 +3329,7 @@
     <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B151" s="10">
         <f t="shared" si="8"/>
@@ -3326,7 +3347,7 @@
     <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B152" s="10">
         <f t="shared" si="8"/>
@@ -3344,7 +3365,7 @@
     <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B153" s="10">
         <f t="shared" si="8"/>
@@ -3362,7 +3383,7 @@
     <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B154" s="10">
         <f t="shared" si="8"/>
@@ -3380,7 +3401,7 @@
     <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B155" s="10">
         <f t="shared" si="8"/>
@@ -3398,7 +3419,7 @@
     <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B156" s="10">
         <f t="shared" si="8"/>
@@ -3416,7 +3437,7 @@
     <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B157" s="10">
         <f t="shared" si="8"/>
@@ -3434,7 +3455,7 @@
     <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B158" s="11">
         <f t="shared" si="8"/>
@@ -3452,7 +3473,7 @@
     <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B159" s="10">
         <f t="shared" si="8"/>
@@ -3470,7 +3491,7 @@
     <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B160" s="10">
         <f t="shared" si="8"/>
@@ -3488,7 +3509,7 @@
     <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B161" s="10">
         <f t="shared" si="8"/>
@@ -3506,7 +3527,7 @@
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B162" s="10">
         <f t="shared" si="8"/>
@@ -3524,7 +3545,7 @@
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B163" s="10">
         <f t="shared" si="8"/>
@@ -3542,7 +3563,7 @@
     <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B164" s="10">
         <f t="shared" si="8"/>
@@ -3560,7 +3581,7 @@
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B165" s="10">
         <f t="shared" si="8"/>
@@ -3578,7 +3599,7 @@
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B166" s="10">
         <f t="shared" si="8"/>
@@ -3596,7 +3617,7 @@
     <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B167" s="10">
         <f t="shared" si="8"/>
@@ -3614,7 +3635,7 @@
     <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B168" s="10">
         <f t="shared" si="8"/>
@@ -3632,7 +3653,7 @@
     <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B169" s="10">
         <f t="shared" si="8"/>
@@ -3650,7 +3671,7 @@
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B170" s="10">
         <f t="shared" si="8"/>
@@ -3668,7 +3689,7 @@
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B171" s="10">
         <f t="shared" si="8"/>
@@ -3686,7 +3707,7 @@
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B172" s="10">
         <f t="shared" si="8"/>
@@ -3704,7 +3725,7 @@
     <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B173" s="10">
         <f t="shared" si="8"/>
@@ -3722,7 +3743,7 @@
     <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="str">
         <f t="shared" ref="A174:A237" si="10">A173</f>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B174" s="11">
         <f t="shared" si="8"/>
@@ -3740,7 +3761,7 @@
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B175" s="10">
         <f t="shared" si="8"/>
@@ -3758,7 +3779,7 @@
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B176" s="10">
         <f t="shared" si="8"/>
@@ -3776,7 +3797,7 @@
     <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B177" s="10">
         <f t="shared" si="8"/>
@@ -3794,7 +3815,7 @@
     <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B178" s="10">
         <f t="shared" si="8"/>
@@ -3812,7 +3833,7 @@
     <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B179" s="10">
         <f t="shared" si="8"/>
@@ -3830,7 +3851,7 @@
     <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B180" s="10">
         <f t="shared" si="8"/>
@@ -3848,7 +3869,7 @@
     <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B181" s="10">
         <f t="shared" si="8"/>
@@ -3866,7 +3887,7 @@
     <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B182" s="10">
         <f t="shared" ref="B182:B245" si="11">C181</f>
@@ -3884,7 +3905,7 @@
     <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B183" s="10">
         <f t="shared" si="11"/>
@@ -3902,7 +3923,7 @@
     <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B184" s="10">
         <f t="shared" si="11"/>
@@ -3920,7 +3941,7 @@
     <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B185" s="10">
         <f t="shared" si="11"/>
@@ -3938,7 +3959,7 @@
     <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B186" s="10">
         <f t="shared" si="11"/>
@@ -3956,7 +3977,7 @@
     <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B187" s="10">
         <f t="shared" si="11"/>
@@ -3974,7 +3995,7 @@
     <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B188" s="10">
         <f t="shared" si="11"/>
@@ -3992,7 +4013,7 @@
     <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B189" s="10">
         <f t="shared" si="11"/>
@@ -4010,7 +4031,7 @@
     <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B190" s="11">
         <f t="shared" si="11"/>
@@ -4028,7 +4049,7 @@
     <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B191" s="10">
         <f t="shared" si="11"/>
@@ -4046,7 +4067,7 @@
     <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B192" s="10">
         <f t="shared" si="11"/>
@@ -4064,7 +4085,7 @@
     <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B193" s="10">
         <f t="shared" si="11"/>
@@ -4082,7 +4103,7 @@
     <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B194" s="10">
         <f t="shared" si="11"/>
@@ -4100,7 +4121,7 @@
     <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B195" s="10">
         <f t="shared" si="11"/>
@@ -4118,7 +4139,7 @@
     <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B196" s="10">
         <f t="shared" si="11"/>
@@ -4136,7 +4157,7 @@
     <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B197" s="10">
         <f t="shared" si="11"/>
@@ -4154,7 +4175,7 @@
     <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B198" s="10">
         <f t="shared" si="11"/>
@@ -4172,7 +4193,7 @@
     <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B199" s="10">
         <f t="shared" si="11"/>
@@ -4190,7 +4211,7 @@
     <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B200" s="10">
         <f t="shared" si="11"/>
@@ -4208,7 +4229,7 @@
     <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B201" s="10">
         <f t="shared" si="11"/>
@@ -4226,7 +4247,7 @@
     <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B202" s="10">
         <f t="shared" si="11"/>
@@ -4244,7 +4265,7 @@
     <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B203" s="10">
         <f t="shared" si="11"/>
@@ -4262,7 +4283,7 @@
     <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B204" s="10">
         <f t="shared" si="11"/>
@@ -4280,7 +4301,7 @@
     <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B205" s="10">
         <f t="shared" si="11"/>
@@ -4298,7 +4319,7 @@
     <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B206" s="11">
         <f t="shared" si="11"/>
@@ -4316,7 +4337,7 @@
     <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B207" s="10">
         <f t="shared" si="11"/>
@@ -4334,7 +4355,7 @@
     <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B208" s="10">
         <f t="shared" si="11"/>
@@ -4352,7 +4373,7 @@
     <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B209" s="10">
         <f t="shared" si="11"/>
@@ -4370,7 +4391,7 @@
     <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B210" s="10">
         <f t="shared" si="11"/>
@@ -4388,7 +4409,7 @@
     <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B211" s="10">
         <f t="shared" si="11"/>
@@ -4406,7 +4427,7 @@
     <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B212" s="10">
         <f t="shared" si="11"/>
@@ -4424,7 +4445,7 @@
     <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B213" s="10">
         <f t="shared" si="11"/>
@@ -4442,7 +4463,7 @@
     <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B214" s="10">
         <f t="shared" si="11"/>
@@ -4460,7 +4481,7 @@
     <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B215" s="10">
         <f t="shared" si="11"/>
@@ -4478,7 +4499,7 @@
     <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B216" s="10">
         <f t="shared" si="11"/>
@@ -4496,7 +4517,7 @@
     <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B217" s="10">
         <f t="shared" si="11"/>
@@ -4514,7 +4535,7 @@
     <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B218" s="10">
         <f t="shared" si="11"/>
@@ -4532,7 +4553,7 @@
     <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B219" s="10">
         <f t="shared" si="11"/>
@@ -4550,7 +4571,7 @@
     <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B220" s="10">
         <f t="shared" si="11"/>
@@ -4568,7 +4589,7 @@
     <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B221" s="10">
         <f t="shared" si="11"/>
@@ -4586,7 +4607,7 @@
     <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B222" s="11">
         <f t="shared" si="11"/>
@@ -4604,7 +4625,7 @@
     <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B223" s="10">
         <f t="shared" si="11"/>
@@ -4622,7 +4643,7 @@
     <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B224" s="10">
         <f t="shared" si="11"/>
@@ -4640,7 +4661,7 @@
     <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B225" s="10">
         <f t="shared" si="11"/>
@@ -4658,7 +4679,7 @@
     <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B226" s="10">
         <f t="shared" si="11"/>
@@ -4676,7 +4697,7 @@
     <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B227" s="10">
         <f t="shared" si="11"/>
@@ -4694,7 +4715,7 @@
     <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B228" s="10">
         <f t="shared" si="11"/>
@@ -4712,7 +4733,7 @@
     <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B229" s="10">
         <f t="shared" si="11"/>
@@ -4730,7 +4751,7 @@
     <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B230" s="10">
         <f t="shared" si="11"/>
@@ -4748,7 +4769,7 @@
     <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B231" s="10">
         <f t="shared" si="11"/>
@@ -4766,7 +4787,7 @@
     <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B232" s="10">
         <f t="shared" si="11"/>
@@ -4784,7 +4805,7 @@
     <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B233" s="10">
         <f t="shared" si="11"/>
@@ -4802,7 +4823,7 @@
     <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B234" s="10">
         <f t="shared" si="11"/>
@@ -4820,7 +4841,7 @@
     <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B235" s="10">
         <f t="shared" si="11"/>
@@ -4838,7 +4859,7 @@
     <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B236" s="10">
         <f t="shared" si="11"/>
@@ -4856,7 +4877,7 @@
     <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B237" s="10">
         <f t="shared" si="11"/>
@@ -4874,7 +4895,7 @@
     <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="str">
         <f t="shared" ref="A238:A301" si="13">A237</f>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B238" s="11">
         <f t="shared" si="11"/>
@@ -4892,7 +4913,7 @@
     <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B239" s="10">
         <f t="shared" si="11"/>
@@ -4910,7 +4931,7 @@
     <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B240" s="10">
         <f t="shared" si="11"/>
@@ -4928,7 +4949,7 @@
     <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B241" s="10">
         <f t="shared" si="11"/>
@@ -4946,7 +4967,7 @@
     <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B242" s="10">
         <f t="shared" si="11"/>
@@ -4964,7 +4985,7 @@
     <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B243" s="10">
         <f t="shared" si="11"/>
@@ -4982,7 +5003,7 @@
     <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B244" s="10">
         <f t="shared" si="11"/>
@@ -5000,7 +5021,7 @@
     <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B245" s="10">
         <f t="shared" si="11"/>
@@ -5018,7 +5039,7 @@
     <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B246" s="10">
         <f t="shared" ref="B246:B309" si="14">C245</f>
@@ -5036,7 +5057,7 @@
     <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B247" s="10">
         <f t="shared" si="14"/>
@@ -5054,7 +5075,7 @@
     <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B248" s="10">
         <f t="shared" si="14"/>
@@ -5072,7 +5093,7 @@
     <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B249" s="10">
         <f t="shared" si="14"/>
@@ -5090,7 +5111,7 @@
     <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B250" s="10">
         <f t="shared" si="14"/>
@@ -5108,7 +5129,7 @@
     <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B251" s="10">
         <f t="shared" si="14"/>
@@ -5126,7 +5147,7 @@
     <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B252" s="10">
         <f t="shared" si="14"/>
@@ -5144,7 +5165,7 @@
     <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B253" s="10">
         <f t="shared" si="14"/>
@@ -5162,7 +5183,7 @@
     <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B254" s="11">
         <f t="shared" si="14"/>
@@ -5180,7 +5201,7 @@
     <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B255" s="10">
         <f t="shared" si="14"/>
@@ -5198,7 +5219,7 @@
     <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B256" s="10">
         <f t="shared" si="14"/>
@@ -5216,7 +5237,7 @@
     <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B257" s="10">
         <f t="shared" si="14"/>
@@ -5234,7 +5255,7 @@
     <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B258" s="10">
         <f t="shared" si="14"/>
@@ -5252,7 +5273,7 @@
     <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B259" s="10">
         <f t="shared" si="14"/>
@@ -5270,7 +5291,7 @@
     <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B260" s="10">
         <f t="shared" si="14"/>
@@ -5288,7 +5309,7 @@
     <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B261" s="10">
         <f t="shared" si="14"/>
@@ -5306,7 +5327,7 @@
     <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B262" s="10">
         <f t="shared" si="14"/>
@@ -5324,7 +5345,7 @@
     <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B263" s="10">
         <f t="shared" si="14"/>
@@ -5342,7 +5363,7 @@
     <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B264" s="10">
         <f t="shared" si="14"/>
@@ -5360,7 +5381,7 @@
     <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B265" s="10">
         <f t="shared" si="14"/>
@@ -5378,7 +5399,7 @@
     <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B266" s="10">
         <f t="shared" si="14"/>
@@ -5396,7 +5417,7 @@
     <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B267" s="10">
         <f t="shared" si="14"/>
@@ -5414,7 +5435,7 @@
     <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B268" s="10">
         <f t="shared" si="14"/>
@@ -5432,7 +5453,7 @@
     <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B269" s="10">
         <f t="shared" si="14"/>
@@ -5450,7 +5471,7 @@
     <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B270" s="11">
         <f t="shared" si="14"/>
@@ -5468,7 +5489,7 @@
     <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B271" s="10">
         <f t="shared" si="14"/>
@@ -5486,7 +5507,7 @@
     <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B272" s="10">
         <f t="shared" si="14"/>
@@ -5504,7 +5525,7 @@
     <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B273" s="10">
         <f t="shared" si="14"/>
@@ -5522,7 +5543,7 @@
     <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B274" s="10">
         <f t="shared" si="14"/>
@@ -5540,7 +5561,7 @@
     <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B275" s="10">
         <f t="shared" si="14"/>
@@ -5558,7 +5579,7 @@
     <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B276" s="10">
         <f t="shared" si="14"/>
@@ -5576,7 +5597,7 @@
     <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B277" s="10">
         <f t="shared" si="14"/>
@@ -5594,7 +5615,7 @@
     <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B278" s="10">
         <f t="shared" si="14"/>
@@ -5612,7 +5633,7 @@
     <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B279" s="10">
         <f t="shared" si="14"/>
@@ -5630,7 +5651,7 @@
     <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B280" s="10">
         <f t="shared" si="14"/>
@@ -5648,7 +5669,7 @@
     <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B281" s="10">
         <f t="shared" si="14"/>
@@ -5666,7 +5687,7 @@
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B282" s="10">
         <f t="shared" si="14"/>
@@ -5684,7 +5705,7 @@
     <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B283" s="10">
         <f t="shared" si="14"/>
@@ -5702,7 +5723,7 @@
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B284" s="10">
         <f t="shared" si="14"/>
@@ -5720,7 +5741,7 @@
     <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B285" s="10">
         <f t="shared" si="14"/>
@@ -5738,7 +5759,7 @@
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B286" s="11">
         <f t="shared" si="14"/>
@@ -5756,7 +5777,7 @@
     <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B287" s="10">
         <f t="shared" si="14"/>
@@ -5774,7 +5795,7 @@
     <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B288" s="10">
         <f t="shared" si="14"/>
@@ -5792,7 +5813,7 @@
     <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B289" s="10">
         <f t="shared" si="14"/>
@@ -5810,7 +5831,7 @@
     <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B290" s="10">
         <f t="shared" si="14"/>
@@ -5828,7 +5849,7 @@
     <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B291" s="10">
         <f t="shared" si="14"/>
@@ -5846,7 +5867,7 @@
     <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B292" s="10">
         <f t="shared" si="14"/>
@@ -5864,7 +5885,7 @@
     <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B293" s="10">
         <f t="shared" si="14"/>
@@ -5882,7 +5903,7 @@
     <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B294" s="10">
         <f t="shared" si="14"/>
@@ -5900,7 +5921,7 @@
     <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B295" s="10">
         <f t="shared" si="14"/>
@@ -5918,7 +5939,7 @@
     <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B296" s="10">
         <f t="shared" si="14"/>
@@ -5936,7 +5957,7 @@
     <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B297" s="10">
         <f t="shared" si="14"/>
@@ -5954,7 +5975,7 @@
     <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B298" s="10">
         <f t="shared" si="14"/>
@@ -5972,7 +5993,7 @@
     <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B299" s="10">
         <f t="shared" si="14"/>
@@ -5990,7 +6011,7 @@
     <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B300" s="10">
         <f t="shared" si="14"/>
@@ -6008,7 +6029,7 @@
     <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B301" s="10">
         <f t="shared" si="14"/>
@@ -6026,7 +6047,7 @@
     <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="8" t="str">
         <f t="shared" ref="A302:A365" si="16">A301</f>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B302" s="11">
         <f t="shared" si="14"/>
@@ -6044,7 +6065,7 @@
     <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B303" s="10">
         <f t="shared" si="14"/>
@@ -6062,7 +6083,7 @@
     <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B304" s="10">
         <f t="shared" si="14"/>
@@ -6080,7 +6101,7 @@
     <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B305" s="10">
         <f t="shared" si="14"/>
@@ -6098,7 +6119,7 @@
     <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B306" s="10">
         <f t="shared" si="14"/>
@@ -6116,7 +6137,7 @@
     <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B307" s="10">
         <f t="shared" si="14"/>
@@ -6134,7 +6155,7 @@
     <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B308" s="10">
         <f t="shared" si="14"/>
@@ -6152,7 +6173,7 @@
     <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B309" s="10">
         <f t="shared" si="14"/>
@@ -6170,7 +6191,7 @@
     <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B310" s="10">
         <f t="shared" ref="B310:B373" si="17">C309</f>
@@ -6188,7 +6209,7 @@
     <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B311" s="10">
         <f t="shared" si="17"/>
@@ -6206,7 +6227,7 @@
     <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B312" s="10">
         <f t="shared" si="17"/>
@@ -6224,7 +6245,7 @@
     <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B313" s="10">
         <f t="shared" si="17"/>
@@ -6242,7 +6263,7 @@
     <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B314" s="10">
         <f t="shared" si="17"/>
@@ -6260,7 +6281,7 @@
     <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B315" s="10">
         <f t="shared" si="17"/>
@@ -6278,7 +6299,7 @@
     <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B316" s="10">
         <f t="shared" si="17"/>
@@ -6296,7 +6317,7 @@
     <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B317" s="10">
         <f t="shared" si="17"/>
@@ -6314,7 +6335,7 @@
     <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B318" s="11">
         <f t="shared" si="17"/>
@@ -6332,7 +6353,7 @@
     <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B319" s="10">
         <f t="shared" si="17"/>
@@ -6350,7 +6371,7 @@
     <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B320" s="10">
         <f t="shared" si="17"/>
@@ -6368,7 +6389,7 @@
     <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B321" s="10">
         <f t="shared" si="17"/>
@@ -6386,7 +6407,7 @@
     <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B322" s="10">
         <f t="shared" si="17"/>
@@ -6404,7 +6425,7 @@
     <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B323" s="10">
         <f t="shared" si="17"/>
@@ -6422,7 +6443,7 @@
     <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B324" s="10">
         <f t="shared" si="17"/>
@@ -6440,7 +6461,7 @@
     <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B325" s="10">
         <f t="shared" si="17"/>
@@ -6458,7 +6479,7 @@
     <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B326" s="10">
         <f t="shared" si="17"/>
@@ -6476,7 +6497,7 @@
     <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B327" s="10">
         <f t="shared" si="17"/>
@@ -6494,7 +6515,7 @@
     <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B328" s="10">
         <f t="shared" si="17"/>
@@ -6512,7 +6533,7 @@
     <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B329" s="10">
         <f t="shared" si="17"/>
@@ -6530,7 +6551,7 @@
     <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B330" s="10">
         <f t="shared" si="17"/>
@@ -6548,7 +6569,7 @@
     <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B331" s="10">
         <f t="shared" si="17"/>
@@ -6566,7 +6587,7 @@
     <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B332" s="10">
         <f t="shared" si="17"/>
@@ -6584,7 +6605,7 @@
     <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B333" s="10">
         <f t="shared" si="17"/>
@@ -6602,7 +6623,7 @@
     <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B334" s="11">
         <f t="shared" si="17"/>
@@ -6620,7 +6641,7 @@
     <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B335" s="10">
         <f t="shared" si="17"/>
@@ -6638,7 +6659,7 @@
     <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B336" s="10">
         <f t="shared" si="17"/>
@@ -6656,7 +6677,7 @@
     <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B337" s="10">
         <f t="shared" si="17"/>
@@ -6674,7 +6695,7 @@
     <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B338" s="10">
         <f t="shared" si="17"/>
@@ -6692,7 +6713,7 @@
     <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B339" s="10">
         <f t="shared" si="17"/>
@@ -6710,7 +6731,7 @@
     <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B340" s="10">
         <f t="shared" si="17"/>
@@ -6728,7 +6749,7 @@
     <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B341" s="10">
         <f t="shared" si="17"/>
@@ -6746,7 +6767,7 @@
     <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B342" s="10">
         <f t="shared" si="17"/>
@@ -6764,7 +6785,7 @@
     <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B343" s="10">
         <f t="shared" si="17"/>
@@ -6782,7 +6803,7 @@
     <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B344" s="10">
         <f t="shared" si="17"/>
@@ -6800,7 +6821,7 @@
     <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B345" s="10">
         <f t="shared" si="17"/>
@@ -6818,7 +6839,7 @@
     <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B346" s="10">
         <f t="shared" si="17"/>
@@ -6836,7 +6857,7 @@
     <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B347" s="10">
         <f t="shared" si="17"/>
@@ -6854,7 +6875,7 @@
     <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B348" s="10">
         <f t="shared" si="17"/>
@@ -6872,7 +6893,7 @@
     <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B349" s="10">
         <f t="shared" si="17"/>
@@ -6890,7 +6911,7 @@
     <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B350" s="11">
         <f t="shared" si="17"/>
@@ -6908,7 +6929,7 @@
     <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B351" s="10">
         <f t="shared" si="17"/>
@@ -6926,7 +6947,7 @@
     <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B352" s="10">
         <f t="shared" si="17"/>
@@ -6944,7 +6965,7 @@
     <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B353" s="10">
         <f t="shared" si="17"/>
@@ -6962,7 +6983,7 @@
     <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B354" s="10">
         <f t="shared" si="17"/>
@@ -6980,7 +7001,7 @@
     <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B355" s="10">
         <f t="shared" si="17"/>
@@ -6998,7 +7019,7 @@
     <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B356" s="10">
         <f t="shared" si="17"/>
@@ -7016,7 +7037,7 @@
     <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B357" s="10">
         <f t="shared" si="17"/>
@@ -7034,7 +7055,7 @@
     <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B358" s="10">
         <f t="shared" si="17"/>
@@ -7052,7 +7073,7 @@
     <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B359" s="10">
         <f t="shared" si="17"/>
@@ -7070,7 +7091,7 @@
     <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B360" s="10">
         <f t="shared" si="17"/>
@@ -7088,7 +7109,7 @@
     <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B361" s="10">
         <f t="shared" si="17"/>
@@ -7106,7 +7127,7 @@
     <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B362" s="10">
         <f t="shared" si="17"/>
@@ -7124,7 +7145,7 @@
     <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B363" s="10">
         <f t="shared" si="17"/>
@@ -7142,7 +7163,7 @@
     <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B364" s="10">
         <f t="shared" si="17"/>
@@ -7160,7 +7181,7 @@
     <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B365" s="10">
         <f t="shared" si="17"/>
@@ -7178,7 +7199,7 @@
     <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="8" t="str">
         <f t="shared" ref="A366:A381" si="19">A365</f>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B366" s="11">
         <f t="shared" si="17"/>
@@ -7196,7 +7217,7 @@
     <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B367" s="10">
         <f t="shared" si="17"/>
@@ -7214,7 +7235,7 @@
     <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B368" s="10">
         <f t="shared" si="17"/>
@@ -7232,7 +7253,7 @@
     <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B369" s="10">
         <f t="shared" si="17"/>
@@ -7250,7 +7271,7 @@
     <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B370" s="10">
         <f t="shared" si="17"/>
@@ -7268,7 +7289,7 @@
     <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B371" s="10">
         <f t="shared" si="17"/>
@@ -7286,7 +7307,7 @@
     <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B372" s="10">
         <f t="shared" si="17"/>
@@ -7304,7 +7325,7 @@
     <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B373" s="10">
         <f t="shared" si="17"/>
@@ -7322,7 +7343,7 @@
     <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B374" s="10">
         <f t="shared" ref="B374:B381" si="20">C373</f>
@@ -7340,7 +7361,7 @@
     <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B375" s="10">
         <f t="shared" si="20"/>
@@ -7358,7 +7379,7 @@
     <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B376" s="10">
         <f t="shared" si="20"/>
@@ -7376,7 +7397,7 @@
     <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B377" s="10">
         <f t="shared" si="20"/>
@@ -7394,7 +7415,7 @@
     <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="8" t="str">
         <f>A377</f>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B378" s="10">
         <f t="shared" si="20"/>
@@ -7412,7 +7433,7 @@
     <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B379" s="10">
         <f t="shared" si="20"/>
@@ -7430,7 +7451,7 @@
     <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B380" s="10">
         <f t="shared" si="20"/>
@@ -7448,7 +7469,7 @@
     <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B381" s="10">
         <f t="shared" si="20"/>
@@ -8092,8 +8113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8115,13 +8136,13 @@
       </c>
       <c r="E1" s="4">
         <f>SUM(B2:B331)</f>
-        <v>0.17708333333333326</v>
+        <v>0.20138888888888884</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="str">
         <f>Sheet1!A5</f>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B2" s="17">
         <f>Sheet1!H5</f>
@@ -8132,11 +8153,11 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="str">
         <f>Sheet1!A8</f>
-        <v>2020 09 01</v>
+        <v>2020 09 02</v>
       </c>
       <c r="B3" s="17">
-        <f>Sheet1!H8</f>
-        <v>6.5972222222222099E-2</v>
+        <f>Sheet1!H9</f>
+        <v>9.0277777777777679E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/time_trackerConverter_Tomas.xlsx
+++ b/time_trackerConverter_Tomas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rytis\Documents\MyDocuments\MyApps\trackerConverter_Tomas_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6FD953-D7D7-496A-9400-917D2C3A9104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D7D2CA-EF59-448A-8931-CC24A399EF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>2020 09 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020 09 12</t>
+  </si>
+  <si>
+    <t>ieskau kuo skirias failai</t>
   </si>
 </sst>
 </file>
@@ -571,7 +577,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -789,27 +795,27 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+      <c r="A10" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B10" s="10">
-        <f t="shared" si="2"/>
-        <v>1.0729166666666667</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="13">
         <f t="shared" si="0"/>
-        <v>-1.0729166666666667</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>-0.70833333333333337</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B11" s="10">
         <f t="shared" si="2"/>
@@ -827,7 +833,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B12" s="10">
         <f t="shared" si="2"/>
@@ -845,7 +851,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B13" s="10">
         <f t="shared" si="2"/>
@@ -863,7 +869,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="str">
         <f>A13</f>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B14" s="11">
         <f t="shared" si="2"/>
@@ -881,7 +887,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B15" s="10">
         <f t="shared" si="2"/>
@@ -899,7 +905,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B16" s="10">
         <f t="shared" si="2"/>
@@ -917,7 +923,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B17" s="10">
         <f t="shared" si="2"/>
@@ -935,7 +941,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B18" s="10">
         <f t="shared" si="2"/>
@@ -953,7 +959,7 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B19" s="10">
         <f t="shared" si="2"/>
@@ -971,7 +977,7 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B20" s="10">
         <f t="shared" si="2"/>
@@ -989,7 +995,7 @@
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B21" s="10">
         <f t="shared" si="2"/>
@@ -1007,7 +1013,7 @@
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B22" s="10">
         <f t="shared" si="2"/>
@@ -1025,7 +1031,7 @@
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B23" s="10">
         <f t="shared" si="2"/>
@@ -1043,7 +1049,7 @@
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B24" s="10">
         <f t="shared" si="2"/>
@@ -1061,7 +1067,7 @@
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B25" s="10">
         <f t="shared" si="2"/>
@@ -1079,7 +1085,7 @@
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="2"/>
@@ -1097,7 +1103,7 @@
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" si="2"/>
@@ -1115,7 +1121,7 @@
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B28" s="10">
         <f t="shared" si="2"/>
@@ -1133,7 +1139,7 @@
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B29" s="10">
         <f t="shared" si="2"/>
@@ -1151,7 +1157,7 @@
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B30" s="11">
         <f t="shared" si="2"/>
@@ -1169,7 +1175,7 @@
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B31" s="10">
         <f t="shared" si="2"/>
@@ -1187,7 +1193,7 @@
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B32" s="10">
         <f t="shared" si="2"/>
@@ -1205,7 +1211,7 @@
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B33" s="10">
         <f t="shared" si="2"/>
@@ -1223,7 +1229,7 @@
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B34" s="10">
         <f t="shared" si="2"/>
@@ -1241,7 +1247,7 @@
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B35" s="10">
         <f t="shared" si="2"/>
@@ -1259,7 +1265,7 @@
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B36" s="10">
         <f t="shared" si="2"/>
@@ -1277,7 +1283,7 @@
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B37" s="10">
         <f t="shared" si="2"/>
@@ -1295,7 +1301,7 @@
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B38" s="10">
         <f t="shared" si="2"/>
@@ -1313,7 +1319,7 @@
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B39" s="10">
         <f t="shared" si="2"/>
@@ -1331,7 +1337,7 @@
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B40" s="10">
         <f t="shared" si="2"/>
@@ -1349,7 +1355,7 @@
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B41" s="10">
         <f t="shared" si="2"/>
@@ -1367,7 +1373,7 @@
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B42" s="10">
         <f t="shared" si="2"/>
@@ -1385,7 +1391,7 @@
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B43" s="10">
         <f t="shared" si="2"/>
@@ -1403,7 +1409,7 @@
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B44" s="10">
         <f t="shared" si="2"/>
@@ -1421,7 +1427,7 @@
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B45" s="10">
         <f t="shared" si="2"/>
@@ -1439,7 +1445,7 @@
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="str">
         <f t="shared" ref="A46:A109" si="4">A45</f>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B46" s="11">
         <f t="shared" si="2"/>
@@ -1457,7 +1463,7 @@
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B47" s="10">
         <f t="shared" si="2"/>
@@ -1475,7 +1481,7 @@
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B48" s="10">
         <f t="shared" si="2"/>
@@ -1493,7 +1499,7 @@
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B49" s="10">
         <f t="shared" si="2"/>
@@ -1511,7 +1517,7 @@
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B50" s="10">
         <f t="shared" si="2"/>
@@ -1529,7 +1535,7 @@
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B51" s="10">
         <f t="shared" si="2"/>
@@ -1547,7 +1553,7 @@
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B52" s="10">
         <f t="shared" si="2"/>
@@ -1565,7 +1571,7 @@
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B53" s="10">
         <f t="shared" si="2"/>
@@ -1583,7 +1589,7 @@
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B54" s="10">
         <f t="shared" ref="B54:B117" si="5">C53</f>
@@ -1601,7 +1607,7 @@
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B55" s="10">
         <f t="shared" si="5"/>
@@ -1619,7 +1625,7 @@
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B56" s="10">
         <f t="shared" si="5"/>
@@ -1637,7 +1643,7 @@
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B57" s="10">
         <f t="shared" si="5"/>
@@ -1655,7 +1661,7 @@
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B58" s="10">
         <f t="shared" si="5"/>
@@ -1673,7 +1679,7 @@
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B59" s="10">
         <f t="shared" si="5"/>
@@ -1691,7 +1697,7 @@
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B60" s="10">
         <f t="shared" si="5"/>
@@ -1709,7 +1715,7 @@
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B61" s="10">
         <f t="shared" si="5"/>
@@ -1727,7 +1733,7 @@
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B62" s="11">
         <f t="shared" si="5"/>
@@ -1745,7 +1751,7 @@
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B63" s="10">
         <f t="shared" si="5"/>
@@ -1763,7 +1769,7 @@
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B64" s="10">
         <f t="shared" si="5"/>
@@ -1781,7 +1787,7 @@
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B65" s="10">
         <f t="shared" si="5"/>
@@ -1799,7 +1805,7 @@
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B66" s="10">
         <f t="shared" si="5"/>
@@ -1817,7 +1823,7 @@
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B67" s="10">
         <f t="shared" si="5"/>
@@ -1835,7 +1841,7 @@
     <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B68" s="10">
         <f t="shared" si="5"/>
@@ -1853,7 +1859,7 @@
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B69" s="10">
         <f t="shared" si="5"/>
@@ -1871,7 +1877,7 @@
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B70" s="10">
         <f t="shared" si="5"/>
@@ -1889,7 +1895,7 @@
     <row r="71" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B71" s="10">
         <f t="shared" si="5"/>
@@ -1907,7 +1913,7 @@
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B72" s="10">
         <f t="shared" si="5"/>
@@ -1925,7 +1931,7 @@
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B73" s="10">
         <f t="shared" si="5"/>
@@ -1943,7 +1949,7 @@
     <row r="74" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B74" s="10">
         <f t="shared" si="5"/>
@@ -1961,7 +1967,7 @@
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B75" s="10">
         <f t="shared" si="5"/>
@@ -1979,7 +1985,7 @@
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B76" s="10">
         <f t="shared" si="5"/>
@@ -1997,7 +2003,7 @@
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B77" s="10">
         <f t="shared" si="5"/>
@@ -2015,7 +2021,7 @@
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B78" s="11">
         <f t="shared" si="5"/>
@@ -2033,7 +2039,7 @@
     <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B79" s="10">
         <f t="shared" si="5"/>
@@ -2051,7 +2057,7 @@
     <row r="80" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B80" s="10">
         <f t="shared" si="5"/>
@@ -2069,7 +2075,7 @@
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B81" s="10">
         <f t="shared" si="5"/>
@@ -2087,7 +2093,7 @@
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B82" s="10">
         <f t="shared" si="5"/>
@@ -2105,7 +2111,7 @@
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B83" s="10">
         <f t="shared" si="5"/>
@@ -2123,7 +2129,7 @@
     <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B84" s="10">
         <f t="shared" si="5"/>
@@ -2141,7 +2147,7 @@
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B85" s="10">
         <f t="shared" si="5"/>
@@ -2159,7 +2165,7 @@
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B86" s="10">
         <f t="shared" si="5"/>
@@ -2177,7 +2183,7 @@
     <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B87" s="10">
         <f t="shared" si="5"/>
@@ -2195,7 +2201,7 @@
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B88" s="10">
         <f t="shared" si="5"/>
@@ -2213,7 +2219,7 @@
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B89" s="10">
         <f t="shared" si="5"/>
@@ -2231,7 +2237,7 @@
     <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B90" s="10">
         <f t="shared" si="5"/>
@@ -2249,7 +2255,7 @@
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B91" s="10">
         <f t="shared" si="5"/>
@@ -2267,7 +2273,7 @@
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B92" s="10">
         <f t="shared" si="5"/>
@@ -2285,7 +2291,7 @@
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B93" s="10">
         <f t="shared" si="5"/>
@@ -2303,7 +2309,7 @@
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B94" s="11">
         <f t="shared" si="5"/>
@@ -2321,7 +2327,7 @@
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B95" s="10">
         <f t="shared" si="5"/>
@@ -2339,7 +2345,7 @@
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B96" s="10">
         <f t="shared" si="5"/>
@@ -2357,7 +2363,7 @@
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B97" s="10">
         <f t="shared" si="5"/>
@@ -2375,7 +2381,7 @@
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B98" s="10">
         <f t="shared" si="5"/>
@@ -2393,7 +2399,7 @@
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B99" s="10">
         <f t="shared" si="5"/>
@@ -2411,7 +2417,7 @@
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B100" s="10">
         <f t="shared" si="5"/>
@@ -2429,7 +2435,7 @@
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B101" s="10">
         <f t="shared" si="5"/>
@@ -2447,7 +2453,7 @@
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B102" s="10">
         <f t="shared" si="5"/>
@@ -2465,7 +2471,7 @@
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B103" s="10">
         <f t="shared" si="5"/>
@@ -2483,7 +2489,7 @@
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B104" s="10">
         <f t="shared" si="5"/>
@@ -2501,7 +2507,7 @@
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B105" s="10">
         <f t="shared" si="5"/>
@@ -2519,7 +2525,7 @@
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B106" s="10">
         <f t="shared" si="5"/>
@@ -2537,7 +2543,7 @@
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B107" s="10">
         <f t="shared" si="5"/>
@@ -2555,7 +2561,7 @@
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B108" s="10">
         <f t="shared" si="5"/>
@@ -2573,7 +2579,7 @@
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B109" s="10">
         <f t="shared" si="5"/>
@@ -2591,7 +2597,7 @@
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="str">
         <f t="shared" ref="A110:A173" si="7">A109</f>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B110" s="11">
         <f t="shared" si="5"/>
@@ -2609,7 +2615,7 @@
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B111" s="10">
         <f t="shared" si="5"/>
@@ -2627,7 +2633,7 @@
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B112" s="10">
         <f t="shared" si="5"/>
@@ -2645,7 +2651,7 @@
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B113" s="10">
         <f t="shared" si="5"/>
@@ -2663,7 +2669,7 @@
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B114" s="10">
         <f t="shared" si="5"/>
@@ -2681,7 +2687,7 @@
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B115" s="10">
         <f t="shared" si="5"/>
@@ -2699,7 +2705,7 @@
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B116" s="10">
         <f t="shared" si="5"/>
@@ -2717,7 +2723,7 @@
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B117" s="10">
         <f t="shared" si="5"/>
@@ -2735,7 +2741,7 @@
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B118" s="10">
         <f t="shared" ref="B118:B181" si="8">C117</f>
@@ -2753,7 +2759,7 @@
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B119" s="10">
         <f t="shared" si="8"/>
@@ -2771,7 +2777,7 @@
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B120" s="10">
         <f t="shared" si="8"/>
@@ -2789,7 +2795,7 @@
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B121" s="10">
         <f t="shared" si="8"/>
@@ -2807,7 +2813,7 @@
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B122" s="10">
         <f t="shared" si="8"/>
@@ -2825,7 +2831,7 @@
     <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B123" s="10">
         <f t="shared" si="8"/>
@@ -2843,7 +2849,7 @@
     <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B124" s="10">
         <f t="shared" si="8"/>
@@ -2861,7 +2867,7 @@
     <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B125" s="10">
         <f t="shared" si="8"/>
@@ -2879,7 +2885,7 @@
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B126" s="11">
         <f t="shared" si="8"/>
@@ -2897,7 +2903,7 @@
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B127" s="10">
         <f t="shared" si="8"/>
@@ -2915,7 +2921,7 @@
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B128" s="10">
         <f t="shared" si="8"/>
@@ -2933,7 +2939,7 @@
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B129" s="10">
         <f t="shared" si="8"/>
@@ -2951,7 +2957,7 @@
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B130" s="10">
         <f t="shared" si="8"/>
@@ -2969,7 +2975,7 @@
     <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B131" s="10">
         <f t="shared" si="8"/>
@@ -2987,7 +2993,7 @@
     <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B132" s="10">
         <f t="shared" si="8"/>
@@ -3005,7 +3011,7 @@
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B133" s="10">
         <f t="shared" si="8"/>
@@ -3023,7 +3029,7 @@
     <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B134" s="10">
         <f t="shared" si="8"/>
@@ -3041,7 +3047,7 @@
     <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B135" s="10">
         <f t="shared" si="8"/>
@@ -3059,7 +3065,7 @@
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B136" s="10">
         <f t="shared" si="8"/>
@@ -3077,7 +3083,7 @@
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B137" s="10">
         <f t="shared" si="8"/>
@@ -3095,7 +3101,7 @@
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B138" s="10">
         <f t="shared" si="8"/>
@@ -3113,7 +3119,7 @@
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B139" s="10">
         <f t="shared" si="8"/>
@@ -3131,7 +3137,7 @@
     <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B140" s="10">
         <f t="shared" si="8"/>
@@ -3149,7 +3155,7 @@
     <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B141" s="10">
         <f t="shared" si="8"/>
@@ -3167,7 +3173,7 @@
     <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B142" s="11">
         <f t="shared" si="8"/>
@@ -3185,7 +3191,7 @@
     <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B143" s="10">
         <f t="shared" si="8"/>
@@ -3203,7 +3209,7 @@
     <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B144" s="10">
         <f t="shared" si="8"/>
@@ -3221,7 +3227,7 @@
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B145" s="10">
         <f t="shared" si="8"/>
@@ -3239,7 +3245,7 @@
     <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B146" s="10">
         <f t="shared" si="8"/>
@@ -3257,7 +3263,7 @@
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B147" s="10">
         <f t="shared" si="8"/>
@@ -3275,7 +3281,7 @@
     <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B148" s="10">
         <f t="shared" si="8"/>
@@ -3293,7 +3299,7 @@
     <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B149" s="10">
         <f t="shared" si="8"/>
@@ -3311,7 +3317,7 @@
     <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B150" s="10">
         <f t="shared" si="8"/>
@@ -3329,7 +3335,7 @@
     <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B151" s="10">
         <f t="shared" si="8"/>
@@ -3347,7 +3353,7 @@
     <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B152" s="10">
         <f t="shared" si="8"/>
@@ -3365,7 +3371,7 @@
     <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B153" s="10">
         <f t="shared" si="8"/>
@@ -3383,7 +3389,7 @@
     <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B154" s="10">
         <f t="shared" si="8"/>
@@ -3401,7 +3407,7 @@
     <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B155" s="10">
         <f t="shared" si="8"/>
@@ -3419,7 +3425,7 @@
     <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B156" s="10">
         <f t="shared" si="8"/>
@@ -3437,7 +3443,7 @@
     <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B157" s="10">
         <f t="shared" si="8"/>
@@ -3455,7 +3461,7 @@
     <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B158" s="11">
         <f t="shared" si="8"/>
@@ -3473,7 +3479,7 @@
     <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B159" s="10">
         <f t="shared" si="8"/>
@@ -3491,7 +3497,7 @@
     <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B160" s="10">
         <f t="shared" si="8"/>
@@ -3509,7 +3515,7 @@
     <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B161" s="10">
         <f t="shared" si="8"/>
@@ -3527,7 +3533,7 @@
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B162" s="10">
         <f t="shared" si="8"/>
@@ -3545,7 +3551,7 @@
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B163" s="10">
         <f t="shared" si="8"/>
@@ -3563,7 +3569,7 @@
     <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B164" s="10">
         <f t="shared" si="8"/>
@@ -3581,7 +3587,7 @@
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B165" s="10">
         <f t="shared" si="8"/>
@@ -3599,7 +3605,7 @@
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B166" s="10">
         <f t="shared" si="8"/>
@@ -3617,7 +3623,7 @@
     <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B167" s="10">
         <f t="shared" si="8"/>
@@ -3635,7 +3641,7 @@
     <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B168" s="10">
         <f t="shared" si="8"/>
@@ -3653,7 +3659,7 @@
     <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B169" s="10">
         <f t="shared" si="8"/>
@@ -3671,7 +3677,7 @@
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B170" s="10">
         <f t="shared" si="8"/>
@@ -3689,7 +3695,7 @@
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B171" s="10">
         <f t="shared" si="8"/>
@@ -3707,7 +3713,7 @@
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B172" s="10">
         <f t="shared" si="8"/>
@@ -3725,7 +3731,7 @@
     <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B173" s="10">
         <f t="shared" si="8"/>
@@ -3743,7 +3749,7 @@
     <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="str">
         <f t="shared" ref="A174:A237" si="10">A173</f>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B174" s="11">
         <f t="shared" si="8"/>
@@ -3761,7 +3767,7 @@
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B175" s="10">
         <f t="shared" si="8"/>
@@ -3779,7 +3785,7 @@
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B176" s="10">
         <f t="shared" si="8"/>
@@ -3797,7 +3803,7 @@
     <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B177" s="10">
         <f t="shared" si="8"/>
@@ -3815,7 +3821,7 @@
     <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B178" s="10">
         <f t="shared" si="8"/>
@@ -3833,7 +3839,7 @@
     <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B179" s="10">
         <f t="shared" si="8"/>
@@ -3851,7 +3857,7 @@
     <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B180" s="10">
         <f t="shared" si="8"/>
@@ -3869,7 +3875,7 @@
     <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B181" s="10">
         <f t="shared" si="8"/>
@@ -3887,7 +3893,7 @@
     <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B182" s="10">
         <f t="shared" ref="B182:B245" si="11">C181</f>
@@ -3905,7 +3911,7 @@
     <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B183" s="10">
         <f t="shared" si="11"/>
@@ -3923,7 +3929,7 @@
     <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B184" s="10">
         <f t="shared" si="11"/>
@@ -3941,7 +3947,7 @@
     <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B185" s="10">
         <f t="shared" si="11"/>
@@ -3959,7 +3965,7 @@
     <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B186" s="10">
         <f t="shared" si="11"/>
@@ -3977,7 +3983,7 @@
     <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B187" s="10">
         <f t="shared" si="11"/>
@@ -3995,7 +4001,7 @@
     <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B188" s="10">
         <f t="shared" si="11"/>
@@ -4013,7 +4019,7 @@
     <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B189" s="10">
         <f t="shared" si="11"/>
@@ -4031,7 +4037,7 @@
     <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B190" s="11">
         <f t="shared" si="11"/>
@@ -4049,7 +4055,7 @@
     <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B191" s="10">
         <f t="shared" si="11"/>
@@ -4067,7 +4073,7 @@
     <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B192" s="10">
         <f t="shared" si="11"/>
@@ -4085,7 +4091,7 @@
     <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B193" s="10">
         <f t="shared" si="11"/>
@@ -4103,7 +4109,7 @@
     <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B194" s="10">
         <f t="shared" si="11"/>
@@ -4121,7 +4127,7 @@
     <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B195" s="10">
         <f t="shared" si="11"/>
@@ -4139,7 +4145,7 @@
     <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B196" s="10">
         <f t="shared" si="11"/>
@@ -4157,7 +4163,7 @@
     <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B197" s="10">
         <f t="shared" si="11"/>
@@ -4175,7 +4181,7 @@
     <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B198" s="10">
         <f t="shared" si="11"/>
@@ -4193,7 +4199,7 @@
     <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B199" s="10">
         <f t="shared" si="11"/>
@@ -4211,7 +4217,7 @@
     <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B200" s="10">
         <f t="shared" si="11"/>
@@ -4229,7 +4235,7 @@
     <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B201" s="10">
         <f t="shared" si="11"/>
@@ -4247,7 +4253,7 @@
     <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B202" s="10">
         <f t="shared" si="11"/>
@@ -4265,7 +4271,7 @@
     <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B203" s="10">
         <f t="shared" si="11"/>
@@ -4283,7 +4289,7 @@
     <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B204" s="10">
         <f t="shared" si="11"/>
@@ -4301,7 +4307,7 @@
     <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B205" s="10">
         <f t="shared" si="11"/>
@@ -4319,7 +4325,7 @@
     <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B206" s="11">
         <f t="shared" si="11"/>
@@ -4337,7 +4343,7 @@
     <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B207" s="10">
         <f t="shared" si="11"/>
@@ -4355,7 +4361,7 @@
     <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B208" s="10">
         <f t="shared" si="11"/>
@@ -4373,7 +4379,7 @@
     <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B209" s="10">
         <f t="shared" si="11"/>
@@ -4391,7 +4397,7 @@
     <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B210" s="10">
         <f t="shared" si="11"/>
@@ -4409,7 +4415,7 @@
     <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B211" s="10">
         <f t="shared" si="11"/>
@@ -4427,7 +4433,7 @@
     <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B212" s="10">
         <f t="shared" si="11"/>
@@ -4445,7 +4451,7 @@
     <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B213" s="10">
         <f t="shared" si="11"/>
@@ -4463,7 +4469,7 @@
     <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B214" s="10">
         <f t="shared" si="11"/>
@@ -4481,7 +4487,7 @@
     <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B215" s="10">
         <f t="shared" si="11"/>
@@ -4499,7 +4505,7 @@
     <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B216" s="10">
         <f t="shared" si="11"/>
@@ -4517,7 +4523,7 @@
     <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B217" s="10">
         <f t="shared" si="11"/>
@@ -4535,7 +4541,7 @@
     <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B218" s="10">
         <f t="shared" si="11"/>
@@ -4553,7 +4559,7 @@
     <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B219" s="10">
         <f t="shared" si="11"/>
@@ -4571,7 +4577,7 @@
     <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B220" s="10">
         <f t="shared" si="11"/>
@@ -4589,7 +4595,7 @@
     <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B221" s="10">
         <f t="shared" si="11"/>
@@ -4607,7 +4613,7 @@
     <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B222" s="11">
         <f t="shared" si="11"/>
@@ -4625,7 +4631,7 @@
     <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B223" s="10">
         <f t="shared" si="11"/>
@@ -4643,7 +4649,7 @@
     <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B224" s="10">
         <f t="shared" si="11"/>
@@ -4661,7 +4667,7 @@
     <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B225" s="10">
         <f t="shared" si="11"/>
@@ -4679,7 +4685,7 @@
     <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B226" s="10">
         <f t="shared" si="11"/>
@@ -4697,7 +4703,7 @@
     <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B227" s="10">
         <f t="shared" si="11"/>
@@ -4715,7 +4721,7 @@
     <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B228" s="10">
         <f t="shared" si="11"/>
@@ -4733,7 +4739,7 @@
     <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B229" s="10">
         <f t="shared" si="11"/>
@@ -4751,7 +4757,7 @@
     <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B230" s="10">
         <f t="shared" si="11"/>
@@ -4769,7 +4775,7 @@
     <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B231" s="10">
         <f t="shared" si="11"/>
@@ -4787,7 +4793,7 @@
     <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B232" s="10">
         <f t="shared" si="11"/>
@@ -4805,7 +4811,7 @@
     <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B233" s="10">
         <f t="shared" si="11"/>
@@ -4823,7 +4829,7 @@
     <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B234" s="10">
         <f t="shared" si="11"/>
@@ -4841,7 +4847,7 @@
     <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B235" s="10">
         <f t="shared" si="11"/>
@@ -4859,7 +4865,7 @@
     <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B236" s="10">
         <f t="shared" si="11"/>
@@ -4877,7 +4883,7 @@
     <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="str">
         <f t="shared" si="10"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B237" s="10">
         <f t="shared" si="11"/>
@@ -4895,7 +4901,7 @@
     <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="8" t="str">
         <f t="shared" ref="A238:A301" si="13">A237</f>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B238" s="11">
         <f t="shared" si="11"/>
@@ -4913,7 +4919,7 @@
     <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B239" s="10">
         <f t="shared" si="11"/>
@@ -4931,7 +4937,7 @@
     <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B240" s="10">
         <f t="shared" si="11"/>
@@ -4949,7 +4955,7 @@
     <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B241" s="10">
         <f t="shared" si="11"/>
@@ -4967,7 +4973,7 @@
     <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B242" s="10">
         <f t="shared" si="11"/>
@@ -4985,7 +4991,7 @@
     <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B243" s="10">
         <f t="shared" si="11"/>
@@ -5003,7 +5009,7 @@
     <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B244" s="10">
         <f t="shared" si="11"/>
@@ -5021,7 +5027,7 @@
     <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B245" s="10">
         <f t="shared" si="11"/>
@@ -5039,7 +5045,7 @@
     <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B246" s="10">
         <f t="shared" ref="B246:B309" si="14">C245</f>
@@ -5057,7 +5063,7 @@
     <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B247" s="10">
         <f t="shared" si="14"/>
@@ -5075,7 +5081,7 @@
     <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B248" s="10">
         <f t="shared" si="14"/>
@@ -5093,7 +5099,7 @@
     <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B249" s="10">
         <f t="shared" si="14"/>
@@ -5111,7 +5117,7 @@
     <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B250" s="10">
         <f t="shared" si="14"/>
@@ -5129,7 +5135,7 @@
     <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B251" s="10">
         <f t="shared" si="14"/>
@@ -5147,7 +5153,7 @@
     <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B252" s="10">
         <f t="shared" si="14"/>
@@ -5165,7 +5171,7 @@
     <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B253" s="10">
         <f t="shared" si="14"/>
@@ -5183,7 +5189,7 @@
     <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B254" s="11">
         <f t="shared" si="14"/>
@@ -5201,7 +5207,7 @@
     <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B255" s="10">
         <f t="shared" si="14"/>
@@ -5219,7 +5225,7 @@
     <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B256" s="10">
         <f t="shared" si="14"/>
@@ -5237,7 +5243,7 @@
     <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B257" s="10">
         <f t="shared" si="14"/>
@@ -5255,7 +5261,7 @@
     <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B258" s="10">
         <f t="shared" si="14"/>
@@ -5273,7 +5279,7 @@
     <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B259" s="10">
         <f t="shared" si="14"/>
@@ -5291,7 +5297,7 @@
     <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B260" s="10">
         <f t="shared" si="14"/>
@@ -5309,7 +5315,7 @@
     <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B261" s="10">
         <f t="shared" si="14"/>
@@ -5327,7 +5333,7 @@
     <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B262" s="10">
         <f t="shared" si="14"/>
@@ -5345,7 +5351,7 @@
     <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B263" s="10">
         <f t="shared" si="14"/>
@@ -5363,7 +5369,7 @@
     <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B264" s="10">
         <f t="shared" si="14"/>
@@ -5381,7 +5387,7 @@
     <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B265" s="10">
         <f t="shared" si="14"/>
@@ -5399,7 +5405,7 @@
     <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B266" s="10">
         <f t="shared" si="14"/>
@@ -5417,7 +5423,7 @@
     <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B267" s="10">
         <f t="shared" si="14"/>
@@ -5435,7 +5441,7 @@
     <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B268" s="10">
         <f t="shared" si="14"/>
@@ -5453,7 +5459,7 @@
     <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B269" s="10">
         <f t="shared" si="14"/>
@@ -5471,7 +5477,7 @@
     <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B270" s="11">
         <f t="shared" si="14"/>
@@ -5489,7 +5495,7 @@
     <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B271" s="10">
         <f t="shared" si="14"/>
@@ -5507,7 +5513,7 @@
     <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B272" s="10">
         <f t="shared" si="14"/>
@@ -5525,7 +5531,7 @@
     <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B273" s="10">
         <f t="shared" si="14"/>
@@ -5543,7 +5549,7 @@
     <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B274" s="10">
         <f t="shared" si="14"/>
@@ -5561,7 +5567,7 @@
     <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B275" s="10">
         <f t="shared" si="14"/>
@@ -5579,7 +5585,7 @@
     <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B276" s="10">
         <f t="shared" si="14"/>
@@ -5597,7 +5603,7 @@
     <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B277" s="10">
         <f t="shared" si="14"/>
@@ -5615,7 +5621,7 @@
     <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B278" s="10">
         <f t="shared" si="14"/>
@@ -5633,7 +5639,7 @@
     <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B279" s="10">
         <f t="shared" si="14"/>
@@ -5651,7 +5657,7 @@
     <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B280" s="10">
         <f t="shared" si="14"/>
@@ -5669,7 +5675,7 @@
     <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B281" s="10">
         <f t="shared" si="14"/>
@@ -5687,7 +5693,7 @@
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B282" s="10">
         <f t="shared" si="14"/>
@@ -5705,7 +5711,7 @@
     <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B283" s="10">
         <f t="shared" si="14"/>
@@ -5723,7 +5729,7 @@
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B284" s="10">
         <f t="shared" si="14"/>
@@ -5741,7 +5747,7 @@
     <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B285" s="10">
         <f t="shared" si="14"/>
@@ -5759,7 +5765,7 @@
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B286" s="11">
         <f t="shared" si="14"/>
@@ -5777,7 +5783,7 @@
     <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B287" s="10">
         <f t="shared" si="14"/>
@@ -5795,7 +5801,7 @@
     <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B288" s="10">
         <f t="shared" si="14"/>
@@ -5813,7 +5819,7 @@
     <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B289" s="10">
         <f t="shared" si="14"/>
@@ -5831,7 +5837,7 @@
     <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B290" s="10">
         <f t="shared" si="14"/>
@@ -5849,7 +5855,7 @@
     <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B291" s="10">
         <f t="shared" si="14"/>
@@ -5867,7 +5873,7 @@
     <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B292" s="10">
         <f t="shared" si="14"/>
@@ -5885,7 +5891,7 @@
     <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B293" s="10">
         <f t="shared" si="14"/>
@@ -5903,7 +5909,7 @@
     <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B294" s="10">
         <f t="shared" si="14"/>
@@ -5921,7 +5927,7 @@
     <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B295" s="10">
         <f t="shared" si="14"/>
@@ -5939,7 +5945,7 @@
     <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B296" s="10">
         <f t="shared" si="14"/>
@@ -5957,7 +5963,7 @@
     <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B297" s="10">
         <f t="shared" si="14"/>
@@ -5975,7 +5981,7 @@
     <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B298" s="10">
         <f t="shared" si="14"/>
@@ -5993,7 +5999,7 @@
     <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B299" s="10">
         <f t="shared" si="14"/>
@@ -6011,7 +6017,7 @@
     <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="8" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B300" s="10">
         <f t="shared" si="14"/>
@@ -6029,7 +6035,7 @@
     <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="7" t="str">
         <f t="shared" si="13"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B301" s="10">
         <f t="shared" si="14"/>
@@ -6047,7 +6053,7 @@
     <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="8" t="str">
         <f t="shared" ref="A302:A365" si="16">A301</f>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B302" s="11">
         <f t="shared" si="14"/>
@@ -6065,7 +6071,7 @@
     <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B303" s="10">
         <f t="shared" si="14"/>
@@ -6083,7 +6089,7 @@
     <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B304" s="10">
         <f t="shared" si="14"/>
@@ -6101,7 +6107,7 @@
     <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B305" s="10">
         <f t="shared" si="14"/>
@@ -6119,7 +6125,7 @@
     <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B306" s="10">
         <f t="shared" si="14"/>
@@ -6137,7 +6143,7 @@
     <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B307" s="10">
         <f t="shared" si="14"/>
@@ -6155,7 +6161,7 @@
     <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B308" s="10">
         <f t="shared" si="14"/>
@@ -6173,7 +6179,7 @@
     <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B309" s="10">
         <f t="shared" si="14"/>
@@ -6191,7 +6197,7 @@
     <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B310" s="10">
         <f t="shared" ref="B310:B373" si="17">C309</f>
@@ -6209,7 +6215,7 @@
     <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B311" s="10">
         <f t="shared" si="17"/>
@@ -6227,7 +6233,7 @@
     <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B312" s="10">
         <f t="shared" si="17"/>
@@ -6245,7 +6251,7 @@
     <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B313" s="10">
         <f t="shared" si="17"/>
@@ -6263,7 +6269,7 @@
     <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B314" s="10">
         <f t="shared" si="17"/>
@@ -6281,7 +6287,7 @@
     <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B315" s="10">
         <f t="shared" si="17"/>
@@ -6299,7 +6305,7 @@
     <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B316" s="10">
         <f t="shared" si="17"/>
@@ -6317,7 +6323,7 @@
     <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B317" s="10">
         <f t="shared" si="17"/>
@@ -6335,7 +6341,7 @@
     <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B318" s="11">
         <f t="shared" si="17"/>
@@ -6353,7 +6359,7 @@
     <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B319" s="10">
         <f t="shared" si="17"/>
@@ -6371,7 +6377,7 @@
     <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B320" s="10">
         <f t="shared" si="17"/>
@@ -6389,7 +6395,7 @@
     <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B321" s="10">
         <f t="shared" si="17"/>
@@ -6407,7 +6413,7 @@
     <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B322" s="10">
         <f t="shared" si="17"/>
@@ -6425,7 +6431,7 @@
     <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B323" s="10">
         <f t="shared" si="17"/>
@@ -6443,7 +6449,7 @@
     <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B324" s="10">
         <f t="shared" si="17"/>
@@ -6461,7 +6467,7 @@
     <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B325" s="10">
         <f t="shared" si="17"/>
@@ -6479,7 +6485,7 @@
     <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B326" s="10">
         <f t="shared" si="17"/>
@@ -6497,7 +6503,7 @@
     <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B327" s="10">
         <f t="shared" si="17"/>
@@ -6515,7 +6521,7 @@
     <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B328" s="10">
         <f t="shared" si="17"/>
@@ -6533,7 +6539,7 @@
     <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B329" s="10">
         <f t="shared" si="17"/>
@@ -6551,7 +6557,7 @@
     <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B330" s="10">
         <f t="shared" si="17"/>
@@ -6569,7 +6575,7 @@
     <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B331" s="10">
         <f t="shared" si="17"/>
@@ -6587,7 +6593,7 @@
     <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B332" s="10">
         <f t="shared" si="17"/>
@@ -6605,7 +6611,7 @@
     <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B333" s="10">
         <f t="shared" si="17"/>
@@ -6623,7 +6629,7 @@
     <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B334" s="11">
         <f t="shared" si="17"/>
@@ -6641,7 +6647,7 @@
     <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B335" s="10">
         <f t="shared" si="17"/>
@@ -6659,7 +6665,7 @@
     <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B336" s="10">
         <f t="shared" si="17"/>
@@ -6677,7 +6683,7 @@
     <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B337" s="10">
         <f t="shared" si="17"/>
@@ -6695,7 +6701,7 @@
     <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B338" s="10">
         <f t="shared" si="17"/>
@@ -6713,7 +6719,7 @@
     <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B339" s="10">
         <f t="shared" si="17"/>
@@ -6731,7 +6737,7 @@
     <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B340" s="10">
         <f t="shared" si="17"/>
@@ -6749,7 +6755,7 @@
     <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B341" s="10">
         <f t="shared" si="17"/>
@@ -6767,7 +6773,7 @@
     <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B342" s="10">
         <f t="shared" si="17"/>
@@ -6785,7 +6791,7 @@
     <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B343" s="10">
         <f t="shared" si="17"/>
@@ -6803,7 +6809,7 @@
     <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B344" s="10">
         <f t="shared" si="17"/>
@@ -6821,7 +6827,7 @@
     <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B345" s="10">
         <f t="shared" si="17"/>
@@ -6839,7 +6845,7 @@
     <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B346" s="10">
         <f t="shared" si="17"/>
@@ -6857,7 +6863,7 @@
     <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B347" s="10">
         <f t="shared" si="17"/>
@@ -6875,7 +6881,7 @@
     <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B348" s="10">
         <f t="shared" si="17"/>
@@ -6893,7 +6899,7 @@
     <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B349" s="10">
         <f t="shared" si="17"/>
@@ -6911,7 +6917,7 @@
     <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B350" s="11">
         <f t="shared" si="17"/>
@@ -6929,7 +6935,7 @@
     <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B351" s="10">
         <f t="shared" si="17"/>
@@ -6947,7 +6953,7 @@
     <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B352" s="10">
         <f t="shared" si="17"/>
@@ -6965,7 +6971,7 @@
     <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B353" s="10">
         <f t="shared" si="17"/>
@@ -6983,7 +6989,7 @@
     <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B354" s="10">
         <f t="shared" si="17"/>
@@ -7001,7 +7007,7 @@
     <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B355" s="10">
         <f t="shared" si="17"/>
@@ -7019,7 +7025,7 @@
     <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B356" s="10">
         <f t="shared" si="17"/>
@@ -7037,7 +7043,7 @@
     <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B357" s="10">
         <f t="shared" si="17"/>
@@ -7055,7 +7061,7 @@
     <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B358" s="10">
         <f t="shared" si="17"/>
@@ -7073,7 +7079,7 @@
     <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B359" s="10">
         <f t="shared" si="17"/>
@@ -7091,7 +7097,7 @@
     <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B360" s="10">
         <f t="shared" si="17"/>
@@ -7109,7 +7115,7 @@
     <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B361" s="10">
         <f t="shared" si="17"/>
@@ -7127,7 +7133,7 @@
     <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B362" s="10">
         <f t="shared" si="17"/>
@@ -7145,7 +7151,7 @@
     <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B363" s="10">
         <f t="shared" si="17"/>
@@ -7163,7 +7169,7 @@
     <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B364" s="10">
         <f t="shared" si="17"/>
@@ -7181,7 +7187,7 @@
     <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="str">
         <f t="shared" si="16"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B365" s="10">
         <f t="shared" si="17"/>
@@ -7199,7 +7205,7 @@
     <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="8" t="str">
         <f t="shared" ref="A366:A381" si="19">A365</f>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B366" s="11">
         <f t="shared" si="17"/>
@@ -7217,7 +7223,7 @@
     <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B367" s="10">
         <f t="shared" si="17"/>
@@ -7235,7 +7241,7 @@
     <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B368" s="10">
         <f t="shared" si="17"/>
@@ -7253,7 +7259,7 @@
     <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B369" s="10">
         <f t="shared" si="17"/>
@@ -7271,7 +7277,7 @@
     <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B370" s="10">
         <f t="shared" si="17"/>
@@ -7289,7 +7295,7 @@
     <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B371" s="10">
         <f t="shared" si="17"/>
@@ -7307,7 +7313,7 @@
     <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B372" s="10">
         <f t="shared" si="17"/>
@@ -7325,7 +7331,7 @@
     <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B373" s="10">
         <f t="shared" si="17"/>
@@ -7343,7 +7349,7 @@
     <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B374" s="10">
         <f t="shared" ref="B374:B381" si="20">C373</f>
@@ -7361,7 +7367,7 @@
     <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B375" s="10">
         <f t="shared" si="20"/>
@@ -7379,7 +7385,7 @@
     <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B376" s="10">
         <f t="shared" si="20"/>
@@ -7397,7 +7403,7 @@
     <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B377" s="10">
         <f t="shared" si="20"/>
@@ -7415,7 +7421,7 @@
     <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="8" t="str">
         <f>A377</f>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B378" s="10">
         <f t="shared" si="20"/>
@@ -7433,7 +7439,7 @@
     <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B379" s="10">
         <f t="shared" si="20"/>
@@ -7451,7 +7457,7 @@
     <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="8" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B380" s="10">
         <f t="shared" si="20"/>
@@ -7469,7 +7475,7 @@
     <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>2020 09 02</v>
+        <v xml:space="preserve"> 2020 09 12</v>
       </c>
       <c r="B381" s="10">
         <f t="shared" si="20"/>

--- a/time_trackerConverter_Tomas.xlsx
+++ b/time_trackerConverter_Tomas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rytis\Documents\MyDocuments\MyApps\trackerConverter_Tomas_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D7D2CA-EF59-448A-8931-CC24A399EF00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0750C8-9B95-469B-AEEB-22F21901914B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>ieskau kuo skirias failai</t>
+  </si>
+  <si>
+    <t>"doesn't show hand " Poker starsuos ?</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -794,23 +797,27 @@
         <v>9.0277777777777679E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="10">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10">
+        <v>0.72222222222222221</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="13">
         <f t="shared" si="0"/>
-        <v>-0.70833333333333337</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="str">
@@ -819,13 +826,13 @@
       </c>
       <c r="B11" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.72222222222222221</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
